--- a/data/xlsx/ProfileCard.xlsx
+++ b/data/xlsx/ProfileCard.xlsx
@@ -1070,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -6974,6 +6974,102 @@
       <c r="F245" t="inlineStr">
         <is>
           <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>PCCID_チキ</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>MPID_Tiki</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>5</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>PCCID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>MPID_Edelgard</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>5</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>PCCID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>MPID_Dimitri</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>PCCID_クロード</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>MPID_Claude</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>5</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -9250,7 +9346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -10365,6 +10461,90 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PCCSID_チキ</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tiki_0</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PCCSID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Edelgard_0</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PCCSID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Dimitri_0</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PCCSID_クロード</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Claude_0</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10376,7 +10556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -11727,23 +11907,23 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PCSID_銀の剣</t>
+          <t>PCSID_紋章士チキ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Weapon_SilverSword</t>
+          <t>UnitIcon_Tiki</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>CID_G001</t>
         </is>
       </c>
     </row>
@@ -11751,23 +11931,23 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PCSID_いかづちの剣</t>
+          <t>PCSID_紋章士エーデルガルト</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Weapon_ThunderSword</t>
+          <t>UnitIcon_Edelgard</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -11775,23 +11955,23 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PCSID_リベラシオン</t>
+          <t>PCSID_紋章士ディミトリ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Weapon_Liberation</t>
+          <t>UnitIcon_Dimitri</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -11799,23 +11979,23 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PCSID_ヴィレグランツ</t>
+          <t>PCSID_紋章士クロード</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Weapon_WilleGlanz</t>
+          <t>UnitIcon_Claude</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -11823,23 +12003,23 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PCSID_クラドホルグ</t>
+          <t>PCSID_銀の剣</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Weapon_GodSword</t>
+          <t>Weapon_SilverSword</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11847,23 +12027,23 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PCSID_銀の大剣</t>
+          <t>PCSID_いかづちの剣</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Weapon_SilverSwordL</t>
+          <t>Weapon_ThunderSword</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -11871,23 +12051,23 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PCSID_ゲオルギウス</t>
+          <t>PCSID_リベラシオン</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Weapon_GodSwordL</t>
+          <t>Weapon_Liberation</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11895,23 +12075,23 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PCSID_フォルクヴァング</t>
+          <t>PCSID_ヴィレグランツ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Weapon_Folkvangr</t>
+          <t>Weapon_WilleGlanz</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -11919,23 +12099,23 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PCSID_銀の槍</t>
+          <t>PCSID_クラドホルグ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Weapon_SilverLance</t>
+          <t>Weapon_GodSword</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -11943,23 +12123,23 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PCSID_ほのおの槍</t>
+          <t>PCSID_銀の大剣</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Weapon_FlameSpear</t>
+          <t>Weapon_SilverSwordL</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11967,12 +12147,12 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PCSID_ブリューナク</t>
+          <t>PCSID_ゲオルギウス</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Weapon_GodLance</t>
+          <t>Weapon_GodSwordL</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -11991,19 +12171,19 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PCSID_銀の大槍</t>
+          <t>PCSID_フォルクヴァング</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Weapon_SilverLanceL</t>
+          <t>Weapon_Folkvangr</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -12015,19 +12195,19 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PCSID_ヴェノマス</t>
+          <t>PCSID_銀の槍</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Weapon_GodLanceL</t>
+          <t>Weapon_SilverLance</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -12039,23 +12219,23 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PCSID_フェンサリル</t>
+          <t>PCSID_ほのおの槍</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Weapon_Fensalir</t>
+          <t>Weapon_FlameSpear</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -12063,23 +12243,23 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PCSID_銀の斧</t>
+          <t>PCSID_ブリューナク</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Weapon_SilverAxe</t>
+          <t>Weapon_GodLance</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -12087,19 +12267,19 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PCSID_フラガラッハ</t>
+          <t>PCSID_銀の大槍</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Weapon_GodAxe</t>
+          <t>Weapon_SilverLanceL</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -12111,19 +12291,19 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PCSID_銀の大斧</t>
+          <t>PCSID_ヴェノマス</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Weapon_SilverAxeL</t>
+          <t>Weapon_GodLanceL</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -12135,23 +12315,23 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PCSID_かぜの大斧</t>
+          <t>PCSID_フェンサリル</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Weapon_WindAxeL</t>
+          <t>Weapon_Fensalir</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12159,23 +12339,23 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PCSID_ウコンバサラ</t>
+          <t>PCSID_銀の斧</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Weapon_GodAxeL</t>
+          <t>Weapon_SilverAxe</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12183,12 +12363,12 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PCSID_ノーアトゥーン</t>
+          <t>PCSID_フラガラッハ</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Weapon_Noatun</t>
+          <t>Weapon_GodAxe</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -12207,12 +12387,12 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PCSID_銀の弓</t>
+          <t>PCSID_銀の大斧</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Weapon_SilverBow</t>
+          <t>Weapon_SilverAxeL</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -12231,12 +12411,12 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PCSID_光の弓</t>
+          <t>PCSID_かぜの大斧</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Weapon_LightBow</t>
+          <t>Weapon_WindAxeL</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -12255,12 +12435,12 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PCSID_レンダウィル</t>
+          <t>PCSID_ウコンバサラ</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Weapon_GodBow</t>
+          <t>Weapon_GodAxeL</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -12279,19 +12459,19 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PCSID_銀のナイフ</t>
+          <t>PCSID_ノーアトゥーン</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Weapon_SilverKnife</t>
+          <t>Weapon_Noatun</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -12303,23 +12483,23 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PCSID_ミセリコルデ</t>
+          <t>PCSID_銀の弓</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Weapon_Misericorde</t>
+          <t>Weapon_SilverBow</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12327,12 +12507,12 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PCSID_シンクエディア</t>
+          <t>PCSID_光の弓</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Weapon_Cinquedea</t>
+          <t>Weapon_LightBow</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -12351,12 +12531,12 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PCSID_カルンウェナン</t>
+          <t>PCSID_レンダウィル</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Weapon_Carnwenhan</t>
+          <t>Weapon_GodBow</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -12375,12 +12555,12 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PCSID_エルファイアー</t>
+          <t>PCSID_銀のナイフ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Weapon_LFire</t>
+          <t>Weapon_SilverKnife</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -12399,12 +12579,12 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PCSID_ボルガノン</t>
+          <t>PCSID_ミセリコルデ</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Weapon_Bolganone</t>
+          <t>Weapon_Misericorde</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -12423,23 +12603,23 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PCSID_エルサンダー</t>
+          <t>PCSID_シンクエディア</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Weapon_LThunder</t>
+          <t>Weapon_Cinquedea</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -12447,12 +12627,12 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PCSID_トロン</t>
+          <t>PCSID_カルンウェナン</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Weapon_Thoron</t>
+          <t>Weapon_Carnwenhan</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -12471,12 +12651,12 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PCSID_エルウィンド</t>
+          <t>PCSID_エルファイアー</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Weapon_LWind</t>
+          <t>Weapon_LFire</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -12495,12 +12675,12 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PCSID_エクスカリバー</t>
+          <t>PCSID_ボルガノン</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Weapon_Excalibur</t>
+          <t>Weapon_Bolganone</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -12519,12 +12699,12 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PCSID_エルサージ</t>
+          <t>PCSID_エルサンダー</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Weapon_LSurge</t>
+          <t>Weapon_LThunder</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -12543,12 +12723,12 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PCSID_ノヴァ</t>
+          <t>PCSID_トロン</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Weapon_Nova</t>
+          <t>Weapon_Thoron</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -12567,23 +12747,23 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PCSID_オヴスキュリテ</t>
+          <t>PCSID_エルウィンド</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Weapon_Obscurite</t>
+          <t>Weapon_LWind</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12591,23 +12771,23 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PCSID_初心の法</t>
+          <t>PCSID_エクスカリバー</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Weapon_BeginnerFist</t>
+          <t>Weapon_Excalibur</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -12615,12 +12795,12 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PCSID_鉄身の法</t>
+          <t>PCSID_エルサージ</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Weapon_BasicFist</t>
+          <t>Weapon_LSurge</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -12639,12 +12819,12 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PCSID_鋼身の法</t>
+          <t>PCSID_ノヴァ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Weapon_MiddleFist</t>
+          <t>Weapon_Nova</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -12663,12 +12843,12 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PCSID_銀身の法</t>
+          <t>PCSID_オヴスキュリテ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Weapon_HighFist</t>
+          <t>Weapon_Obscurite</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -12687,23 +12867,23 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PCSID_閃進の法</t>
+          <t>PCSID_初心の法</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Weapon_FlashFist</t>
+          <t>Weapon_BeginnerFist</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12711,19 +12891,19 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PCSID_覇神の法</t>
+          <t>PCSID_鉄身の法</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Weapon_GodFist</t>
+          <t>Weapon_BasicFist</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -12735,23 +12915,23 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PCSID_マルス_レイピア</t>
+          <t>PCSID_鋼身の法</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EngWeapon_Marth_Rapier</t>
+          <t>Weapon_MiddleFist</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -12759,23 +12939,23 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PCSID_マルス_メリクルソード</t>
+          <t>PCSID_銀身の法</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EngWeapon_Marth_Mericle</t>
+          <t>Weapon_HighFist</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>GID_マルス</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -12783,23 +12963,23 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PCSID_マルス_ファルシオン</t>
+          <t>PCSID_閃進の法</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EngWeapon_Marth_Falchion</t>
+          <t>Weapon_FlashFist</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>GID_マルス</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -12807,23 +12987,23 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PCSID_セリカ_リカバー</t>
+          <t>PCSID_覇神の法</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EngWeapon_Celica_Recovery</t>
+          <t>Weapon_GodFist</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>GID_セリカ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12831,12 +13011,12 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PCSID_シグルド_ナイトキラー</t>
+          <t>PCSID_マルス_レイピア</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EngWeapon_Siglud_RiderKiller</t>
+          <t>EngWeapon_Marth_Rapier</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -12855,12 +13035,12 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PCSID_シグルド_ゆうしゃのやり</t>
+          <t>PCSID_マルス_メリクルソード</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EngWeapon_Siglud_BraveLance</t>
+          <t>EngWeapon_Marth_Mericle</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -12871,7 +13051,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>GID_シグルド</t>
+          <t>GID_マルス</t>
         </is>
       </c>
     </row>
@@ -12879,12 +13059,12 @@
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PCSID_シグルド_ティルフィング</t>
+          <t>PCSID_マルス_ファルシオン</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EngWeapon_Siglud_Tyrfing</t>
+          <t>EngWeapon_Marth_Falchion</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -12895,7 +13075,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>GID_シグルド</t>
+          <t>GID_マルス</t>
         </is>
       </c>
     </row>
@@ -12903,23 +13083,23 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PCSID_リーフ_キラーアクス</t>
+          <t>PCSID_セリカ_リカバー</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EngWeapon_Leaf_KillerAxe</t>
+          <t>EngWeapon_Celica_Recovery</t>
         </is>
       </c>
       <c r="D105" t="n">
         <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_セリカ</t>
         </is>
       </c>
     </row>
@@ -12927,23 +13107,23 @@
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PCSID_リーフ_マスターランス</t>
+          <t>PCSID_シグルド_ナイトキラー</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EngWeapon_Leaf_MasterLance</t>
+          <t>EngWeapon_Siglud_RiderKiller</t>
         </is>
       </c>
       <c r="D106" t="n">
         <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>GID_リーフ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12951,23 +13131,23 @@
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PCSID_リーフ_ひかりの剣</t>
+          <t>PCSID_シグルド_ゆうしゃのやり</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>EngWeapon_Leaf_LightBrand</t>
+          <t>EngWeapon_Siglud_BraveLance</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>GID_リーフ</t>
+          <t>GID_シグルド</t>
         </is>
       </c>
     </row>
@@ -12975,23 +13155,23 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PCSID_ロイ_ランスバスター</t>
+          <t>PCSID_シグルド_ティルフィング</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EngWeapon_Roy_LanceBuster</t>
+          <t>EngWeapon_Siglud_Tyrfing</t>
         </is>
       </c>
       <c r="D108" t="n">
         <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_シグルド</t>
         </is>
       </c>
     </row>
@@ -12999,23 +13179,23 @@
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PCSID_ロイ_ドラゴンキラー</t>
+          <t>PCSID_リーフ_キラーアクス</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EngWeapon_Roy_DragonKiller</t>
+          <t>EngWeapon_Leaf_KillerAxe</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>GID_ロイ</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -13023,23 +13203,23 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PCSID_ロイ_封印の剣</t>
+          <t>PCSID_リーフ_マスターランス</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EngWeapon_Roy_BindingBlade</t>
+          <t>EngWeapon_Leaf_MasterLance</t>
         </is>
       </c>
       <c r="D110" t="n">
         <v>3</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>GID_ロイ</t>
+          <t>GID_リーフ</t>
         </is>
       </c>
     </row>
@@ -13047,23 +13227,23 @@
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PCSID_リン_キラーボウ</t>
+          <t>PCSID_リーフ_ひかりの剣</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EngWeapon_Lin_KillerBow</t>
+          <t>EngWeapon_Leaf_LightBrand</t>
         </is>
       </c>
       <c r="D111" t="n">
         <v>3</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_リーフ</t>
         </is>
       </c>
     </row>
@@ -13071,23 +13251,23 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PCSID_リン_マーニ・カティ</t>
+          <t>PCSID_ロイ_ランスバスター</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EngWeapon_Lin_ManiKatti</t>
+          <t>EngWeapon_Roy_LanceBuster</t>
         </is>
       </c>
       <c r="D112" t="n">
         <v>3</v>
       </c>
       <c r="E112" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>GID_リン</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -13095,23 +13275,23 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PCSID_リン_ミュルグレ</t>
+          <t>PCSID_ロイ_ドラゴンキラー</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EngWeapon_Lin_Myrgleis</t>
+          <t>EngWeapon_Roy_DragonKiller</t>
         </is>
       </c>
       <c r="D113" t="n">
         <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>GID_リン</t>
+          <t>GID_ロイ</t>
         </is>
       </c>
     </row>
@@ -13119,23 +13299,23 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PCSID_エイリーク_レイピア</t>
+          <t>PCSID_ロイ_封印の剣</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EngWeapon_Eirik_Rapier</t>
+          <t>EngWeapon_Roy_BindingBlade</t>
         </is>
       </c>
       <c r="D114" t="n">
         <v>3</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_ロイ</t>
         </is>
       </c>
     </row>
@@ -13143,23 +13323,23 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PCSID_エイリーク_かぜの剣</t>
+          <t>PCSID_リン_キラーボウ</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EngWeapon_Eirik_WindSword</t>
+          <t>EngWeapon_Lin_KillerBow</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>GID_エイリーク</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -13167,23 +13347,23 @@
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PCSID_エイリーク_ジークリンデ</t>
+          <t>PCSID_リン_マーニ・カティ</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EngWeapon_Eirik_Sieglinde</t>
+          <t>EngWeapon_Lin_ManiKatti</t>
         </is>
       </c>
       <c r="D116" t="n">
         <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>GID_エイリーク</t>
+          <t>GID_リン</t>
         </is>
       </c>
     </row>
@@ -13191,23 +13371,23 @@
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PCSID_アイク_ハンマー</t>
+          <t>PCSID_リン_ミュルグレ</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>EngWeapon_Ike_Hammer</t>
+          <t>EngWeapon_Lin_Myrgleis</t>
         </is>
       </c>
       <c r="D117" t="n">
         <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_リン</t>
         </is>
       </c>
     </row>
@@ -13215,23 +13395,23 @@
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PCSID_アイク_ウルヴァン</t>
+          <t>PCSID_エイリーク_レイピア</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EngWeapon_Ike_Urvan</t>
+          <t>EngWeapon_Eirik_Rapier</t>
         </is>
       </c>
       <c r="D118" t="n">
         <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>GID_アイク</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -13239,23 +13419,23 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PCSID_アイク_ラグネル</t>
+          <t>PCSID_エイリーク_かぜの剣</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>EngWeapon_Ike_Ragnell</t>
+          <t>EngWeapon_Eirik_WindSword</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>GID_アイク</t>
+          <t>GID_エイリーク</t>
         </is>
       </c>
     </row>
@@ -13263,23 +13443,23 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PCSID_ミカヤ_シャイン</t>
+          <t>PCSID_エイリーク_ジークリンデ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EngWeapon_Micaiah_Shine</t>
+          <t>EngWeapon_Eirik_Sieglinde</t>
         </is>
       </c>
       <c r="D120" t="n">
         <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>GID_エイリーク</t>
         </is>
       </c>
     </row>
@@ -13287,12 +13467,12 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PCSID_ルキナ_ノーブルレイピア</t>
+          <t>PCSID_アイク_ハンマー</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>EngWeapon_Lucina_NobleRapier</t>
+          <t>EngWeapon_Ike_Hammer</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -13311,12 +13491,12 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PCSID_ルキナ_パルティア</t>
+          <t>PCSID_アイク_ウルヴァン</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>EngWeapon_Lucina_Parthia</t>
+          <t>EngWeapon_Ike_Urvan</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -13327,7 +13507,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>GID_ルキナ</t>
+          <t>GID_アイク</t>
         </is>
       </c>
     </row>
@@ -13335,12 +13515,12 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PCSID_ルキナ_裏剣ファルシオン</t>
+          <t>PCSID_アイク_ラグネル</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>EngWeapon_Lucina_ParallelFalchion</t>
+          <t>EngWeapon_Ike_Ragnell</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -13351,7 +13531,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>GID_ルキナ</t>
+          <t>GID_アイク</t>
         </is>
       </c>
     </row>
@@ -13359,23 +13539,23 @@
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PCSID_カムイ_逆刀</t>
+          <t>PCSID_ミカヤ_シャイン</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>EngWeapon_Kamui_DualKatana</t>
+          <t>EngWeapon_Micaiah_Shine</t>
         </is>
       </c>
       <c r="D124" t="n">
         <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13383,23 +13563,23 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PCSID_カムイ_飛刀</t>
+          <t>PCSID_ルキナ_ノーブルレイピア</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>EngWeapon_Kamui_Wakizashi</t>
+          <t>EngWeapon_Lucina_NobleRapier</t>
         </is>
       </c>
       <c r="D125" t="n">
         <v>3</v>
       </c>
       <c r="E125" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>GID_カムイ</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -13407,23 +13587,23 @@
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PCSID_カムイ_夜刀神</t>
+          <t>PCSID_ルキナ_パルティア</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EngWeapon_Kamui_Yato</t>
+          <t>EngWeapon_Lucina_Parthia</t>
         </is>
       </c>
       <c r="D126" t="n">
         <v>3</v>
       </c>
       <c r="E126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>GID_カムイ</t>
+          <t>GID_ルキナ</t>
         </is>
       </c>
     </row>
@@ -13431,23 +13611,23 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_アイムール</t>
+          <t>PCSID_ルキナ_裏剣ファルシオン</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_Aymr</t>
+          <t>EngWeapon_Lucina_ParallelFalchion</t>
         </is>
       </c>
       <c r="D127" t="n">
         <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_ルキナ</t>
         </is>
       </c>
     </row>
@@ -13455,12 +13635,12 @@
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_ブルトガング</t>
+          <t>PCSID_カムイ_逆刀</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_Blutgang</t>
+          <t>EngWeapon_Kamui_DualKatana</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -13479,23 +13659,23 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_ルーン</t>
+          <t>PCSID_カムイ_飛刀</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_Luin</t>
+          <t>EngWeapon_Kamui_Wakizashi</t>
         </is>
       </c>
       <c r="D129" t="n">
         <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_カムイ</t>
         </is>
       </c>
     </row>
@@ -13503,23 +13683,23 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_アラドヴァル</t>
+          <t>PCSID_カムイ_夜刀神</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_Areadbhar</t>
+          <t>EngWeapon_Kamui_Yato</t>
         </is>
       </c>
       <c r="D130" t="n">
         <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_カムイ</t>
         </is>
       </c>
     </row>
@@ -13527,12 +13707,12 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_アイギスの盾</t>
+          <t>PCSID_ベレト_アイムール</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_AegisShield</t>
+          <t>EngWeapon_Byleth_Aymr</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -13551,12 +13731,12 @@
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_フェイルノート</t>
+          <t>PCSID_ベレト_ブルトガング</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_Failnaught</t>
+          <t>EngWeapon_Byleth_Blutgang</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -13575,12 +13755,12 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_テュルソスの杖</t>
+          <t>PCSID_ベレト_ルーン</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_Thyrsus</t>
+          <t>EngWeapon_Byleth_Luin</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -13599,12 +13779,12 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_ラファイルの宝珠</t>
+          <t>PCSID_ベレト_アラドヴァル</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_RafailGem</t>
+          <t>EngWeapon_Byleth_Areadbhar</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -13623,23 +13803,23 @@
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_ヴァジュラ</t>
+          <t>PCSID_ベレト_アイギスの盾</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_Vajra</t>
+          <t>EngWeapon_Byleth_AegisShield</t>
         </is>
       </c>
       <c r="D135" t="n">
         <v>3</v>
       </c>
       <c r="E135" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>GID_ベレト</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -13647,23 +13827,23 @@
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PCSID_ベレト_天帝の覇剣</t>
+          <t>PCSID_ベレト_フェイルノート</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>EngWeapon_Byleth_SublimeCreatorSword</t>
+          <t>EngWeapon_Byleth_Failnaught</t>
         </is>
       </c>
       <c r="D136" t="n">
         <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>GID_ベレト</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -13671,23 +13851,23 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PCSID_ライブ</t>
+          <t>PCSID_ベレト_テュルソスの杖</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Item_Heal</t>
+          <t>EngWeapon_Byleth_Thyrsus</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -13695,16 +13875,16 @@
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PCSID_リライブ</t>
+          <t>PCSID_ベレト_ラファイルの宝珠</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Item_HiHeal</t>
+          <t>EngWeapon_Byleth_RafailGem</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -13719,23 +13899,23 @@
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PCSID_リブロー</t>
+          <t>PCSID_ベレト_ヴァジュラ</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Item_FarHeal</t>
+          <t>EngWeapon_Byleth_Vajra</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>GID_ベレト</t>
         </is>
       </c>
     </row>
@@ -13743,23 +13923,23 @@
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PCSID_リカバー</t>
+          <t>PCSID_ベレト_天帝の覇剣</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Item_Recover</t>
+          <t>EngWeapon_Byleth_SublimeCreatorSword</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_ベレト</t>
         </is>
       </c>
     </row>
@@ -13767,23 +13947,23 @@
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PCSID_リザーブ</t>
+          <t>PCSID_チキ_つめ</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Item_WholeHeal</t>
+          <t>EngWeapon_Divinestone</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>CID_G001</t>
         </is>
       </c>
     </row>
@@ -13791,23 +13971,23 @@
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PCSID_レスト</t>
+          <t>PCSID_三級長_アイムール</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Item_Rest</t>
+          <t>EngWeapon_Edelgard_Aymr</t>
         </is>
       </c>
       <c r="D142" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" t="n">
         <v>4</v>
       </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -13815,23 +13995,23 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PCSID_ワープ</t>
+          <t>PCSID_三級長_アラドヴァル</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Item_Warp</t>
+          <t>EngWeapon_Edelgard_Areadbhar</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -13839,23 +14019,23 @@
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PCSID_リワープ</t>
+          <t>PCSID_三級長_フェイルノート</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Item_ReWarp</t>
+          <t>EngWeapon_Edelgard_Failnaught</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -13863,23 +14043,23 @@
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PCSID_レスキュー</t>
+          <t>PCSID_ライブ</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Item_Rescue</t>
+          <t>Item_Heal</t>
         </is>
       </c>
       <c r="D145" t="n">
         <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13887,12 +14067,12 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PCSID_ドロー</t>
+          <t>PCSID_リライブ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Item_Draw</t>
+          <t>Item_HiHeal</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -13911,12 +14091,12 @@
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PCSID_トーチ</t>
+          <t>PCSID_リブロー</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Item_TorchRod</t>
+          <t>Item_FarHeal</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -13935,12 +14115,12 @@
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PCSID_フリーズ</t>
+          <t>PCSID_リカバー</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Item_Freeze</t>
+          <t>Item_Recover</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -13959,12 +14139,12 @@
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PCSID_サイレス</t>
+          <t>PCSID_リザーブ</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Item_Silence</t>
+          <t>Item_WholeHeal</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -13983,12 +14163,12 @@
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PCSID_アイスロック</t>
+          <t>PCSID_レスト</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Item_Block</t>
+          <t>Item_Rest</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -14007,12 +14187,12 @@
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PCSID_コラプス</t>
+          <t>PCSID_ワープ</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Item_Collapse</t>
+          <t>Item_Warp</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -14031,23 +14211,23 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PCSID_ノードゥス</t>
+          <t>PCSID_リワープ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Item_Nodus</t>
+          <t>Item_ReWarp</t>
         </is>
       </c>
       <c r="D152" t="n">
         <v>4</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14055,23 +14235,23 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PCSID_傷薬</t>
+          <t>PCSID_レスキュー</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Item_Vulnerary</t>
+          <t>Item_Rescue</t>
         </is>
       </c>
       <c r="D153" t="n">
         <v>4</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14079,23 +14259,23 @@
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PCSID_毒消し</t>
+          <t>PCSID_ドロー</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Item_Antidote</t>
+          <t>Item_Draw</t>
         </is>
       </c>
       <c r="D154" t="n">
         <v>4</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14103,23 +14283,23 @@
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PCSID_特効薬</t>
+          <t>PCSID_トーチ</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Item_Medicine</t>
+          <t>Item_TorchRod</t>
         </is>
       </c>
       <c r="D155" t="n">
         <v>4</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14127,23 +14307,23 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PCSID_聖水</t>
+          <t>PCSID_フリーズ</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Item_HolyWater</t>
+          <t>Item_Freeze</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>4</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14151,23 +14331,23 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PCSID_お弁当</t>
+          <t>PCSID_サイレス</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Item_Bento</t>
+          <t>Item_Silence</t>
         </is>
       </c>
       <c r="D157" t="n">
         <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14175,23 +14355,23 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PCSID_たいまつ</t>
+          <t>PCSID_アイスロック</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Item_Torch</t>
+          <t>Item_Block</t>
         </is>
       </c>
       <c r="D158" t="n">
         <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14199,23 +14379,23 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PCSID_天使の衣</t>
+          <t>PCSID_コラプス</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Item_SeraphRobe</t>
+          <t>Item_Collapse</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14223,23 +14403,23 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PCSID_力のしずく</t>
+          <t>PCSID_ノードゥス</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Item_EnergyDrop</t>
+          <t>Item_Nodus</t>
         </is>
       </c>
       <c r="D160" t="n">
         <v>4</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14247,23 +14427,23 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PCSID_精霊の粉</t>
+          <t>PCSID_傷薬</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Item_SpiritDust</t>
+          <t>Item_Vulnerary</t>
         </is>
       </c>
       <c r="D161" t="n">
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14271,23 +14451,23 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PCSID_秘伝の書</t>
+          <t>PCSID_毒消し</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Item_SecretBook</t>
+          <t>Item_Antidote</t>
         </is>
       </c>
       <c r="D162" t="n">
         <v>4</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14295,12 +14475,12 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PCSID_はやての羽</t>
+          <t>PCSID_特効薬</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Item_Speedwing</t>
+          <t>Item_Medicine</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -14319,23 +14499,23 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PCSID_女神の像</t>
+          <t>PCSID_聖水</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Item_GoddessIcon</t>
+          <t>Item_HolyWater</t>
         </is>
       </c>
       <c r="D164" t="n">
         <v>4</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14343,23 +14523,23 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PCSID_竜の盾</t>
+          <t>PCSID_お弁当</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Item_Dracoshield</t>
+          <t>Item_Bento</t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>4</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14367,12 +14547,12 @@
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PCSID_魔よけ</t>
+          <t>PCSID_たいまつ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Item_Talisman</t>
+          <t>Item_Torch</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -14391,23 +14571,23 @@
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PCSID_ブーツ</t>
+          <t>PCSID_天使の衣</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Item_Boots</t>
+          <t>Item_SeraphRobe</t>
         </is>
       </c>
       <c r="D167" t="n">
         <v>4</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14415,23 +14595,23 @@
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PCSID_薬</t>
+          <t>PCSID_力のしずく</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Item_Tonic</t>
+          <t>Item_EnergyDrop</t>
         </is>
       </c>
       <c r="D168" t="n">
         <v>4</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14439,23 +14619,23 @@
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PCSID_お金</t>
+          <t>PCSID_精霊の粉</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Item_Money</t>
+          <t>Item_SpiritDust</t>
         </is>
       </c>
       <c r="D169" t="n">
         <v>4</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14463,12 +14643,12 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PCSID_マスタープルフ</t>
+          <t>PCSID_秘伝の書</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Item_MasterSeal</t>
+          <t>Item_SecretBook</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -14487,12 +14667,12 @@
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PCSID_チェンジプルフ</t>
+          <t>PCSID_はやての羽</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Item_ChangeSeal</t>
+          <t>Item_Speedwing</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -14511,12 +14691,12 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PCSID_約束の指輪</t>
+          <t>PCSID_女神の像</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Item_PromiseRing</t>
+          <t>Item_GoddessIcon</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -14535,23 +14715,23 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PCSID_システム_支援ハート</t>
+          <t>PCSID_竜の盾</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SystemIcon_RelianceHeart</t>
+          <t>Item_Dracoshield</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14559,16 +14739,16 @@
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PCSID_システム_絆キラ</t>
+          <t>PCSID_魔よけ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SystemIcon_BondKira</t>
+          <t>Item_Talisman</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -14583,23 +14763,23 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PCSID_システム_支援フキダシ</t>
+          <t>PCSID_ブーツ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SystemIcon_TalkReliance</t>
+          <t>Item_Boots</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14607,16 +14787,16 @@
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PCSID_システム_絆フキダシ</t>
+          <t>PCSID_薬</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SystemIcon_TalkStory</t>
+          <t>Item_Tonic</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -14631,16 +14811,16 @@
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PCSID_システム_星</t>
+          <t>PCSID_お金</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SystemIcon_Star</t>
+          <t>Item_Money</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -14655,23 +14835,23 @@
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PCSID_システム_キラ</t>
+          <t>PCSID_マスタープルフ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SystemIcon_Kira</t>
+          <t>Item_MasterSeal</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14679,23 +14859,23 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PCSID_システム_音符</t>
+          <t>PCSID_チェンジプルフ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SystemIcon_Music</t>
+          <t>Item_ChangeSeal</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14703,23 +14883,23 @@
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PCSID_システム_花</t>
+          <t>PCSID_約束の指輪</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SystemIcon_Reaction4</t>
+          <t>Item_PromiseRing</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -14727,12 +14907,12 @@
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PCSID_システム_ガヤ</t>
+          <t>PCSID_システム_支援ハート</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SystemIcon_Reaction2</t>
+          <t>SystemIcon_RelianceHeart</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -14751,12 +14931,12 @@
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PCSID_システム_怒り</t>
+          <t>PCSID_システム_絆キラ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SystemIcon_Reaction3</t>
+          <t>SystemIcon_BondKira</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -14775,12 +14955,12 @@
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PCSID_システム_びっくり</t>
+          <t>PCSID_システム_支援フキダシ</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SystemIcon_Reaction5</t>
+          <t>SystemIcon_TalkReliance</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -14799,12 +14979,12 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PCSID_システム_エクスクラメーション</t>
+          <t>PCSID_システム_絆フキダシ</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SystemIcon_Exclamation</t>
+          <t>SystemIcon_TalkStory</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -14823,12 +15003,12 @@
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PCSID_システム_クエスチョン</t>
+          <t>PCSID_システム_星</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SystemIcon_Question</t>
+          <t>SystemIcon_Star</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -14847,12 +15027,12 @@
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PCSID_システム_お金</t>
+          <t>PCSID_システム_キラ</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SystemIcon_Coin</t>
+          <t>SystemIcon_Kira</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -14871,12 +15051,12 @@
       <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PCSID_システム_銀晶石</t>
+          <t>PCSID_システム_音符</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SystemIcon_Silver</t>
+          <t>SystemIcon_Music</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -14895,12 +15075,12 @@
       <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PCSID_システム_絆のかけら</t>
+          <t>PCSID_システム_花</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SystemIcon_Bonds</t>
+          <t>SystemIcon_Reaction4</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -14919,19 +15099,19 @@
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PCSID_システム_ソラ</t>
+          <t>PCSID_システム_ガヤ</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SystemIcon_Sola</t>
+          <t>SystemIcon_Reaction2</t>
         </is>
       </c>
       <c r="D189" t="n">
         <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -14943,19 +15123,19 @@
       <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PCSID_システム_贈り物</t>
+          <t>PCSID_システム_怒り</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SystemIcon_Gift</t>
+          <t>SystemIcon_Reaction3</t>
         </is>
       </c>
       <c r="D190" t="n">
         <v>5</v>
       </c>
       <c r="E190" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -14967,12 +15147,12 @@
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PCSID_システム_昼</t>
+          <t>PCSID_システム_びっくり</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SystemIcon_Day</t>
+          <t>SystemIcon_Reaction5</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -14991,12 +15171,12 @@
       <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PCSID_システム_夜</t>
+          <t>PCSID_システム_エクスクラメーション</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SystemIcon_Night</t>
+          <t>SystemIcon_Exclamation</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -15015,12 +15195,12 @@
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PCSID_システム_タマネギ</t>
+          <t>PCSID_システム_クエスチョン</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SystemIcon_Onion</t>
+          <t>SystemIcon_Question</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -15039,12 +15219,12 @@
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PCSID_システム_キャベツ</t>
+          <t>PCSID_システム_お金</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SystemIcon_Cabbage</t>
+          <t>SystemIcon_Coin</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -15063,12 +15243,12 @@
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PCSID_システム_ハーブ</t>
+          <t>PCSID_システム_銀晶石</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SystemIcon_Herb</t>
+          <t>SystemIcon_Silver</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -15087,12 +15267,12 @@
       <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PCSID_システム_トマト</t>
+          <t>PCSID_システム_絆のかけら</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SystemIcon_Tomato</t>
+          <t>SystemIcon_Bonds</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -15111,19 +15291,19 @@
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PCSID_システム_小麦</t>
+          <t>PCSID_システム_ソラ</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SystemIcon_Wheat</t>
+          <t>SystemIcon_Sola</t>
         </is>
       </c>
       <c r="D197" t="n">
         <v>5</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -15135,19 +15315,19 @@
       <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PCSID_システム_リンゴ</t>
+          <t>PCSID_システム_贈り物</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SystemIcon_Apple</t>
+          <t>SystemIcon_Gift</t>
         </is>
       </c>
       <c r="D198" t="n">
         <v>5</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -15159,12 +15339,12 @@
       <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PCSID_システム_オレンジ</t>
+          <t>PCSID_システム_昼</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SystemIcon_Orange</t>
+          <t>SystemIcon_Day</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -15183,12 +15363,12 @@
       <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PCSID_システム_モモ</t>
+          <t>PCSID_システム_夜</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SystemIcon_Peach</t>
+          <t>SystemIcon_Night</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -15207,12 +15387,12 @@
       <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PCSID_システム_ブドウ</t>
+          <t>PCSID_システム_タマネギ</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SystemIcon_Grape</t>
+          <t>SystemIcon_Onion</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -15231,12 +15411,12 @@
       <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PCSID_システム_ベリー</t>
+          <t>PCSID_システム_キャベツ</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SystemIcon_Berry</t>
+          <t>SystemIcon_Cabbage</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -15255,12 +15435,12 @@
       <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PCSID_システム_木の実</t>
+          <t>PCSID_システム_ハーブ</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SystemIcon_Nut</t>
+          <t>SystemIcon_Herb</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -15279,12 +15459,12 @@
       <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PCSID_システム_魚</t>
+          <t>PCSID_システム_トマト</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SystemIcon_Fish</t>
+          <t>SystemIcon_Tomato</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -15303,12 +15483,12 @@
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PCSID_システム_ミルク</t>
+          <t>PCSID_システム_小麦</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SystemIcon_Milk</t>
+          <t>SystemIcon_Wheat</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -15327,12 +15507,12 @@
       <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PCSID_システム_米</t>
+          <t>PCSID_システム_リンゴ</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SystemIcon_Rice</t>
+          <t>SystemIcon_Apple</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -15351,12 +15531,12 @@
       <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PCSID_システム_スパイス</t>
+          <t>PCSID_システム_オレンジ</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SystemIcon_Spice</t>
+          <t>SystemIcon_Orange</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -15375,12 +15555,12 @@
       <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PCSID_システム_幻の食材</t>
+          <t>PCSID_システム_モモ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SystemIcon_Rare</t>
+          <t>SystemIcon_Peach</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -15399,12 +15579,12 @@
       <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PCSID_システム_猫</t>
+          <t>PCSID_システム_ブドウ</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SystemIcon_Cat</t>
+          <t>SystemIcon_Grape</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -15423,12 +15603,12 @@
       <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PCSID_システム_犬</t>
+          <t>PCSID_システム_ベリー</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SystemIcon_Dog</t>
+          <t>SystemIcon_Berry</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -15447,12 +15627,12 @@
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PCSID_システム_鳥</t>
+          <t>PCSID_システム_木の実</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SystemIcon_Bird</t>
+          <t>SystemIcon_Nut</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -15471,12 +15651,12 @@
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PCSID_システム_ウサギ</t>
+          <t>PCSID_システム_魚</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>SystemIcon_Rabbit</t>
+          <t>SystemIcon_Fish</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -15495,12 +15675,12 @@
       <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PCSID_システム_羊</t>
+          <t>PCSID_システム_ミルク</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SystemIcon_Sheep</t>
+          <t>SystemIcon_Milk</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -15519,23 +15699,23 @@
       <c r="A214" t="inlineStr"/>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PCSID_システム_ラクダ</t>
+          <t>PCSID_システム_米</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>SystemIcon_Camel</t>
+          <t>SystemIcon_Rice</t>
         </is>
       </c>
       <c r="D214" t="n">
         <v>5</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15543,12 +15723,12 @@
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PCSID_システム_ロバ</t>
+          <t>PCSID_システム_スパイス</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>SystemIcon_Donkey</t>
+          <t>SystemIcon_Spice</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -15567,23 +15747,23 @@
       <c r="A216" t="inlineStr"/>
       <c r="B216" t="inlineStr">
         <is>
-          <t>PCSID_システム_マーモット</t>
+          <t>PCSID_システム_幻の食材</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>SystemIcon_Marmot</t>
+          <t>SystemIcon_Rare</t>
         </is>
       </c>
       <c r="D216" t="n">
         <v>5</v>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15591,23 +15771,23 @@
       <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PCSID_システム_トナカイ</t>
+          <t>PCSID_システム_猫</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>SystemIcon_Reindeer</t>
+          <t>SystemIcon_Cat</t>
         </is>
       </c>
       <c r="D217" t="n">
         <v>5</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15615,23 +15795,23 @@
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PCSID_システム_フラミンゴ</t>
+          <t>PCSID_システム_犬</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>SystemIcon_Flamingo</t>
+          <t>SystemIcon_Dog</t>
         </is>
       </c>
       <c r="D218" t="n">
         <v>5</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15639,12 +15819,12 @@
       <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_マルス</t>
+          <t>PCSID_システム_鳥</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Marth</t>
+          <t>SystemIcon_Bird</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -15663,12 +15843,12 @@
       <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_セリカ</t>
+          <t>PCSID_システム_ウサギ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Celica</t>
+          <t>SystemIcon_Rabbit</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -15687,12 +15867,12 @@
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_シグルド</t>
+          <t>PCSID_システム_羊</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Siglud</t>
+          <t>SystemIcon_Sheep</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -15711,12 +15891,12 @@
       <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_リーフ</t>
+          <t>PCSID_システム_ラクダ</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Leaf</t>
+          <t>SystemIcon_Camel</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -15735,23 +15915,23 @@
       <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_ロイ</t>
+          <t>PCSID_システム_ロバ</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Roy</t>
+          <t>SystemIcon_Donkey</t>
         </is>
       </c>
       <c r="D223" t="n">
         <v>5</v>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15759,12 +15939,12 @@
       <c r="A224" t="inlineStr"/>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_リン</t>
+          <t>PCSID_システム_マーモット</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Lin</t>
+          <t>SystemIcon_Marmot</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -15783,12 +15963,12 @@
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_エイリーク</t>
+          <t>PCSID_システム_トナカイ</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Eirik</t>
+          <t>SystemIcon_Reindeer</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -15807,12 +15987,12 @@
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_アイク</t>
+          <t>PCSID_システム_フラミンゴ</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Ike</t>
+          <t>SystemIcon_Flamingo</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -15831,12 +16011,12 @@
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_ミカヤ</t>
+          <t>PCSID_システム_シンボル_マルス</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Micaiah</t>
+          <t>SystemIcon_Symbol_Marth</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -15855,23 +16035,23 @@
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_ルキナ</t>
+          <t>PCSID_システム_シンボル_セリカ</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Lucina</t>
+          <t>SystemIcon_Symbol_Celica</t>
         </is>
       </c>
       <c r="D228" t="n">
         <v>5</v>
       </c>
       <c r="E228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15879,23 +16059,23 @@
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_カムイ</t>
+          <t>PCSID_システム_シンボル_シグルド</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Kamui</t>
+          <t>SystemIcon_Symbol_Siglud</t>
         </is>
       </c>
       <c r="D229" t="n">
         <v>5</v>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15903,12 +16083,12 @@
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_ベレト</t>
+          <t>PCSID_システム_シンボル_リーフ</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Byleth</t>
+          <t>SystemIcon_Symbol_Leaf</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -15927,12 +16107,12 @@
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PCSID_システム_シンボル_リュール</t>
+          <t>PCSID_システム_シンボル_ロイ</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SystemIcon_Symbol_Lueur</t>
+          <t>SystemIcon_Symbol_Roy</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -15951,23 +16131,23 @@
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ヴァンドレ</t>
+          <t>PCSID_システム_シンボル_リン</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Stamp_Vandre</t>
+          <t>SystemIcon_Symbol_Lin</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E232" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>凡德雷</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -15975,23 +16155,23 @@
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ヴァンドレS</t>
+          <t>PCSID_システム_シンボル_エイリーク</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Stamp_VandreS</t>
+          <t>SystemIcon_Symbol_Eirik</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E233" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>凡德雷</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -15999,23 +16179,23 @@
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_クラン</t>
+          <t>PCSID_システム_シンボル_アイク</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Stamp_Clan</t>
+          <t>SystemIcon_Symbol_Ike</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E234" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>柯岚</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -16023,23 +16203,23 @@
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_クランS</t>
+          <t>PCSID_システム_シンボル_ミカヤ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Stamp_ClanS</t>
+          <t>SystemIcon_Symbol_Micaiah</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E235" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>柯岚</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16047,23 +16227,23 @@
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_フラン</t>
+          <t>PCSID_システム_シンボル_ルキナ</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Stamp_Fram</t>
+          <t>SystemIcon_Symbol_Lucina</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E236" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>芙岚</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -16071,23 +16251,23 @@
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_フランS</t>
+          <t>PCSID_システム_シンボル_カムイ</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Stamp_FramS</t>
+          <t>SystemIcon_Symbol_Kamui</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E237" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>芙岚</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -16095,23 +16275,23 @@
       <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_アルフレッド</t>
+          <t>PCSID_システム_シンボル_ベレト</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Stamp_Alfred</t>
+          <t>SystemIcon_Symbol_Byleth</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E238" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>阿尔弗雷德</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -16119,23 +16299,23 @@
       <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_アルフレッドS</t>
+          <t>PCSID_システム_シンボル_リュール</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Stamp_AlfredS</t>
+          <t>SystemIcon_Symbol_Lueur</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E239" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>阿尔弗雷德</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -16143,23 +16323,23 @@
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ブシュロン</t>
+          <t>PCSID_システム_シンボル_チキ</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Stamp_Boucheron</t>
+          <t>SystemIcon_Tiki</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E240" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>布修隆</t>
+          <t>CID_G001</t>
         </is>
       </c>
     </row>
@@ -16167,23 +16347,23 @@
       <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ブシュロンS</t>
+          <t>PCSID_システム_シンボル_エーデルガルト</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Stamp_BoucheronS</t>
+          <t>SystemIcon_Edelgard</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E241" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>布修隆</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -16191,12 +16371,12 @@
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_エーティエ</t>
+          <t>PCSID_スタンプ_ヴァンドレ</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Stamp_Etie</t>
+          <t>Stamp_Vandre</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -16207,7 +16387,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>艾媞耶</t>
+          <t>凡德雷</t>
         </is>
       </c>
     </row>
@@ -16215,12 +16395,12 @@
       <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_エーティエS</t>
+          <t>PCSID_スタンプ_ヴァンドレS</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Stamp_EtieS</t>
+          <t>Stamp_VandreS</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -16231,7 +16411,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>艾媞耶</t>
+          <t>凡德雷</t>
         </is>
       </c>
     </row>
@@ -16239,12 +16419,12 @@
       <c r="A244" t="inlineStr"/>
       <c r="B244" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_セリーヌ</t>
+          <t>PCSID_スタンプ_クラン</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Stamp_Celine</t>
+          <t>Stamp_Clan</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -16255,7 +16435,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>锡莉奴</t>
+          <t>柯岚</t>
         </is>
       </c>
     </row>
@@ -16263,12 +16443,12 @@
       <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_セリーヌS</t>
+          <t>PCSID_スタンプ_クランS</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Stamp_CelineS</t>
+          <t>Stamp_ClanS</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -16279,7 +16459,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>锡莉奴</t>
+          <t>柯岚</t>
         </is>
       </c>
     </row>
@@ -16287,12 +16467,12 @@
       <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ルイ</t>
+          <t>PCSID_スタンプ_フラン</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Stamp_Louis</t>
+          <t>Stamp_Fram</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -16303,7 +16483,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>路易</t>
+          <t>芙岚</t>
         </is>
       </c>
     </row>
@@ -16311,12 +16491,12 @@
       <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ルイS</t>
+          <t>PCSID_スタンプ_フランS</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Stamp_LouisS</t>
+          <t>Stamp_FramS</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -16327,7 +16507,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>路易</t>
+          <t>芙岚</t>
         </is>
       </c>
     </row>
@@ -16335,12 +16515,12 @@
       <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_クロエ</t>
+          <t>PCSID_スタンプ_アルフレッド</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Stamp_Chloe</t>
+          <t>Stamp_Alfred</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -16351,7 +16531,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>克萝艾</t>
+          <t>阿尔弗雷德</t>
         </is>
       </c>
     </row>
@@ -16359,12 +16539,12 @@
       <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_クロエS</t>
+          <t>PCSID_スタンプ_アルフレッドS</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Stamp_ChloeS</t>
+          <t>Stamp_AlfredS</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -16375,7 +16555,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>克萝艾</t>
+          <t>阿尔弗雷德</t>
         </is>
       </c>
     </row>
@@ -16383,12 +16563,12 @@
       <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ディアマンド</t>
+          <t>PCSID_スタンプ_ブシュロン</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Stamp_Diamand</t>
+          <t>Stamp_Boucheron</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -16399,7 +16579,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>帝亚曼德</t>
+          <t>布修隆</t>
         </is>
       </c>
     </row>
@@ -16407,12 +16587,12 @@
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ディアマンドS</t>
+          <t>PCSID_スタンプ_ブシュロンS</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Stamp_DiamandS</t>
+          <t>Stamp_BoucheronS</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -16423,7 +16603,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>帝亚曼德</t>
+          <t>布修隆</t>
         </is>
       </c>
     </row>
@@ -16431,12 +16611,12 @@
       <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_アンバー</t>
+          <t>PCSID_スタンプ_エーティエ</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Stamp_Umber</t>
+          <t>Stamp_Etie</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -16447,7 +16627,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>安巴</t>
+          <t>艾媞耶</t>
         </is>
       </c>
     </row>
@@ -16455,12 +16635,12 @@
       <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_アンバーS</t>
+          <t>PCSID_スタンプ_エーティエS</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Stamp_UmberS</t>
+          <t>Stamp_EtieS</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -16471,7 +16651,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>安巴</t>
+          <t>艾媞耶</t>
         </is>
       </c>
     </row>
@@ -16479,12 +16659,12 @@
       <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ジェーデ</t>
+          <t>PCSID_スタンプ_セリーヌ</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Stamp_Jade</t>
+          <t>Stamp_Celine</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -16495,7 +16675,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>洁德</t>
+          <t>锡莉奴</t>
         </is>
       </c>
     </row>
@@ -16503,12 +16683,12 @@
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ジェーデS</t>
+          <t>PCSID_スタンプ_セリーヌS</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Stamp_JadeS</t>
+          <t>Stamp_CelineS</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -16519,7 +16699,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>洁德</t>
+          <t>锡莉奴</t>
         </is>
       </c>
     </row>
@@ -16527,12 +16707,12 @@
       <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_スタルーク</t>
+          <t>PCSID_スタンプ_ルイ</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Stamp_Staluke</t>
+          <t>Stamp_Louis</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -16543,7 +16723,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>史塔卢克</t>
+          <t>路易</t>
         </is>
       </c>
     </row>
@@ -16551,12 +16731,12 @@
       <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_スタルークS</t>
+          <t>PCSID_スタンプ_ルイS</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Stamp_StalukeS</t>
+          <t>Stamp_LouisS</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -16567,7 +16747,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>史塔卢克</t>
+          <t>路易</t>
         </is>
       </c>
     </row>
@@ -16575,12 +16755,12 @@
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ラピス</t>
+          <t>PCSID_スタンプ_クロエ</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Stamp_Lapis</t>
+          <t>Stamp_Chloe</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -16591,7 +16771,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>菈琵思</t>
+          <t>克萝艾</t>
         </is>
       </c>
     </row>
@@ -16599,12 +16779,12 @@
       <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ラピスS</t>
+          <t>PCSID_スタンプ_クロエS</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Stamp_LapisS</t>
+          <t>Stamp_ChloeS</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -16615,7 +16795,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>菈琵思</t>
+          <t>克萝艾</t>
         </is>
       </c>
     </row>
@@ -16623,12 +16803,12 @@
       <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_シトリニカ</t>
+          <t>PCSID_スタンプ_ディアマンド</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Stamp_Citrinica</t>
+          <t>Stamp_Diamand</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -16639,7 +16819,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>希特丽妮卡</t>
+          <t>帝亚曼德</t>
         </is>
       </c>
     </row>
@@ -16647,12 +16827,12 @@
       <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_シトリニカS</t>
+          <t>PCSID_スタンプ_ディアマンドS</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Stamp_CitrinicaS</t>
+          <t>Stamp_DiamandS</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -16663,7 +16843,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>希特丽妮卡</t>
+          <t>帝亚曼德</t>
         </is>
       </c>
     </row>
@@ -16671,12 +16851,12 @@
       <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_アイビー</t>
+          <t>PCSID_スタンプ_アンバー</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Stamp_Ivy</t>
+          <t>Stamp_Umber</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -16687,7 +16867,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>艾比</t>
+          <t>安巴</t>
         </is>
       </c>
     </row>
@@ -16695,12 +16875,12 @@
       <c r="A263" t="inlineStr"/>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_アイビーS</t>
+          <t>PCSID_スタンプ_アンバーS</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Stamp_IvyS</t>
+          <t>Stamp_UmberS</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -16711,7 +16891,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>艾比</t>
+          <t>安巴</t>
         </is>
       </c>
     </row>
@@ -16719,12 +16899,12 @@
       <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ゼルコバ</t>
+          <t>PCSID_スタンプ_ジェーデ</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Stamp_Zelkova</t>
+          <t>Stamp_Jade</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -16735,7 +16915,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>杰尔科巴</t>
+          <t>洁德</t>
         </is>
       </c>
     </row>
@@ -16743,12 +16923,12 @@
       <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ゼルコバS</t>
+          <t>PCSID_スタンプ_ジェーデS</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Stamp_ZelkovaS</t>
+          <t>Stamp_JadeS</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -16759,7 +16939,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>杰尔科巴</t>
+          <t>洁德</t>
         </is>
       </c>
     </row>
@@ -16767,12 +16947,12 @@
       <c r="A266" t="inlineStr"/>
       <c r="B266" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_カゲツ</t>
+          <t>PCSID_スタンプ_スタルーク</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Stamp_Kagetsu</t>
+          <t>Stamp_Staluke</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -16783,7 +16963,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>花月</t>
+          <t>史塔卢克</t>
         </is>
       </c>
     </row>
@@ -16791,12 +16971,12 @@
       <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_カゲツS</t>
+          <t>PCSID_スタンプ_スタルークS</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Stamp_KagetsuS</t>
+          <t>Stamp_StalukeS</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -16807,7 +16987,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>花月</t>
+          <t>史塔卢克</t>
         </is>
       </c>
     </row>
@@ -16815,12 +16995,12 @@
       <c r="A268" t="inlineStr"/>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_オルテンシア</t>
+          <t>PCSID_スタンプ_ラピス</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Stamp_Hortensia</t>
+          <t>Stamp_Lapis</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -16831,7 +17011,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>奥尔坦希亚</t>
+          <t>菈琵思</t>
         </is>
       </c>
     </row>
@@ -16839,12 +17019,12 @@
       <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_オルテンシアS</t>
+          <t>PCSID_スタンプ_ラピスS</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Stamp_HortensiaS</t>
+          <t>Stamp_LapisS</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -16855,7 +17035,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>奥尔坦希亚</t>
+          <t>菈琵思</t>
         </is>
       </c>
     </row>
@@ -16863,12 +17043,12 @@
       <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ロサード</t>
+          <t>PCSID_スタンプ_シトリニカ</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Stamp_Rosado</t>
+          <t>Stamp_Citrinica</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -16879,7 +17059,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>罗萨德</t>
+          <t>希特丽妮卡</t>
         </is>
       </c>
     </row>
@@ -16887,12 +17067,12 @@
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ロサードS</t>
+          <t>PCSID_スタンプ_シトリニカS</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Stamp_RosadoS</t>
+          <t>Stamp_CitrinicaS</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -16903,7 +17083,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>罗萨德</t>
+          <t>希特丽妮卡</t>
         </is>
       </c>
     </row>
@@ -16911,12 +17091,12 @@
       <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ゴルドマリー</t>
+          <t>PCSID_スタンプ_アイビー</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Stamp_Goldmary</t>
+          <t>Stamp_Ivy</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -16927,7 +17107,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>戈尔德玛莉</t>
+          <t>艾比</t>
         </is>
       </c>
     </row>
@@ -16935,12 +17115,12 @@
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ゴルドマリーS</t>
+          <t>PCSID_スタンプ_アイビーS</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Stamp_GoldmaryS</t>
+          <t>Stamp_IvyS</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -16951,7 +17131,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>戈尔德玛莉</t>
+          <t>艾比</t>
         </is>
       </c>
     </row>
@@ -16959,12 +17139,12 @@
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ミスティラ</t>
+          <t>PCSID_スタンプ_ゼルコバ</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Stamp_Misutira</t>
+          <t>Stamp_Zelkova</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -16975,7 +17155,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>蜜丝提拉</t>
+          <t>杰尔科巴</t>
         </is>
       </c>
     </row>
@@ -16983,12 +17163,12 @@
       <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ミスティラS</t>
+          <t>PCSID_スタンプ_ゼルコバS</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Stamp_MisutiraS</t>
+          <t>Stamp_ZelkovaS</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -16999,7 +17179,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>蜜丝提拉</t>
+          <t>杰尔科巴</t>
         </is>
       </c>
     </row>
@@ -17007,12 +17187,12 @@
       <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_メリン</t>
+          <t>PCSID_スタンプ_カゲツ</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Stamp_Merin</t>
+          <t>Stamp_Kagetsu</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -17023,7 +17203,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>玫琳</t>
+          <t>花月</t>
         </is>
       </c>
     </row>
@@ -17031,12 +17211,12 @@
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_メリンS</t>
+          <t>PCSID_スタンプ_カゲツS</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Stamp_MerinS</t>
+          <t>Stamp_KagetsuS</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -17047,7 +17227,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>玫琳</t>
+          <t>花月</t>
         </is>
       </c>
     </row>
@@ -17055,12 +17235,12 @@
       <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_パネトネ</t>
+          <t>PCSID_スタンプ_オルテンシア</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Stamp_Panetone</t>
+          <t>Stamp_Hortensia</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -17071,7 +17251,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>帕涅托涅</t>
+          <t>奥尔坦希亚</t>
         </is>
       </c>
     </row>
@@ -17079,12 +17259,12 @@
       <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_パネトネS</t>
+          <t>PCSID_スタンプ_オルテンシアS</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Stamp_PanetoneS</t>
+          <t>Stamp_HortensiaS</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -17095,7 +17275,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>帕涅托涅</t>
+          <t>奥尔坦希亚</t>
         </is>
       </c>
     </row>
@@ -17103,12 +17283,12 @@
       <c r="A280" t="inlineStr"/>
       <c r="B280" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_フォガート</t>
+          <t>PCSID_スタンプ_ロサード</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Stamp_Fogato</t>
+          <t>Stamp_Rosado</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -17119,7 +17299,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>佛贾特</t>
+          <t>罗萨德</t>
         </is>
       </c>
     </row>
@@ -17127,12 +17307,12 @@
       <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_フォガートS</t>
+          <t>PCSID_スタンプ_ロサードS</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Stamp_FogatoS</t>
+          <t>Stamp_RosadoS</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -17143,7 +17323,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>佛贾特</t>
+          <t>罗萨德</t>
         </is>
       </c>
     </row>
@@ -17151,12 +17331,12 @@
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_パンドロ</t>
+          <t>PCSID_スタンプ_ゴルドマリー</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Stamp_Pandoro</t>
+          <t>Stamp_Goldmary</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -17167,7 +17347,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>庞德罗</t>
+          <t>戈尔德玛莉</t>
         </is>
       </c>
     </row>
@@ -17175,12 +17355,12 @@
       <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_パンドロS</t>
+          <t>PCSID_スタンプ_ゴルドマリーS</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Stamp_PandoroS</t>
+          <t>Stamp_GoldmaryS</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -17191,7 +17371,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>庞德罗</t>
+          <t>戈尔德玛莉</t>
         </is>
       </c>
     </row>
@@ -17199,12 +17379,12 @@
       <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ボネ</t>
+          <t>PCSID_スタンプ_ミスティラ</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Stamp_Bonet</t>
+          <t>Stamp_Misutira</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -17215,7 +17395,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>波聂</t>
+          <t>蜜丝提拉</t>
         </is>
       </c>
     </row>
@@ -17223,12 +17403,12 @@
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ボネS</t>
+          <t>PCSID_スタンプ_ミスティラS</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Stamp_BonetS</t>
+          <t>Stamp_MisutiraS</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -17239,7 +17419,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>波聂</t>
+          <t>蜜丝提拉</t>
         </is>
       </c>
     </row>
@@ -17247,12 +17427,12 @@
       <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_アンナ</t>
+          <t>PCSID_スタンプ_メリン</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Stamp_Anna</t>
+          <t>Stamp_Merin</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -17263,7 +17443,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>安娜</t>
+          <t>玫琳</t>
         </is>
       </c>
     </row>
@@ -17271,12 +17451,12 @@
       <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_アンナS</t>
+          <t>PCSID_スタンプ_メリンS</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Stamp_AnnaS</t>
+          <t>Stamp_MerinS</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -17287,7 +17467,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>安娜</t>
+          <t>玫琳</t>
         </is>
       </c>
     </row>
@@ -17295,12 +17475,12 @@
       <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ジャン</t>
+          <t>PCSID_スタンプ_パネトネ</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Stamp_Jean</t>
+          <t>Stamp_Panetone</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -17311,7 +17491,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>贾恩</t>
+          <t>帕涅托涅</t>
         </is>
       </c>
     </row>
@@ -17319,12 +17499,12 @@
       <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ジャンS</t>
+          <t>PCSID_スタンプ_パネトネS</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Stamp_JeanS</t>
+          <t>Stamp_PanetoneS</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -17335,7 +17515,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>贾恩</t>
+          <t>帕涅托涅</t>
         </is>
       </c>
     </row>
@@ -17343,12 +17523,12 @@
       <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ユナカ</t>
+          <t>PCSID_スタンプ_フォガート</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Stamp_Yunaka</t>
+          <t>Stamp_Fogato</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -17359,7 +17539,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>尤娜卡</t>
+          <t>佛贾特</t>
         </is>
       </c>
     </row>
@@ -17367,12 +17547,12 @@
       <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ユナカS</t>
+          <t>PCSID_スタンプ_フォガートS</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Stamp_YunakaS</t>
+          <t>Stamp_FogatoS</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -17383,7 +17563,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>尤娜卡</t>
+          <t>佛贾特</t>
         </is>
       </c>
     </row>
@@ -17391,12 +17571,12 @@
       <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_セアダス</t>
+          <t>PCSID_スタンプ_パンドロ</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Stamp_Seadas</t>
+          <t>Stamp_Pandoro</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -17407,7 +17587,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>赛安达斯</t>
+          <t>庞德罗</t>
         </is>
       </c>
     </row>
@@ -17415,12 +17595,12 @@
       <c r="A293" t="inlineStr"/>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_セアダスS</t>
+          <t>PCSID_スタンプ_パンドロS</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Stamp_SeadasS</t>
+          <t>Stamp_PandoroS</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -17431,7 +17611,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>赛安达斯</t>
+          <t>庞德罗</t>
         </is>
       </c>
     </row>
@@ -17439,12 +17619,12 @@
       <c r="A294" t="inlineStr"/>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_リンデン</t>
+          <t>PCSID_スタンプ_ボネ</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Stamp_Linden</t>
+          <t>Stamp_Bonet</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -17455,7 +17635,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>霖丹</t>
+          <t>波聂</t>
         </is>
       </c>
     </row>
@@ -17463,12 +17643,12 @@
       <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_リンデンS</t>
+          <t>PCSID_スタンプ_ボネS</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Stamp_LindenS</t>
+          <t>Stamp_BonetS</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -17479,7 +17659,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>霖丹</t>
+          <t>波聂</t>
         </is>
       </c>
     </row>
@@ -17487,12 +17667,12 @@
       <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ザフィーア</t>
+          <t>PCSID_スタンプ_アンナ</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Stamp_Saphir</t>
+          <t>Stamp_Anna</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -17503,7 +17683,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>札菲亚</t>
+          <t>安娜</t>
         </is>
       </c>
     </row>
@@ -17511,12 +17691,12 @@
       <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ザフィーアS</t>
+          <t>PCSID_スタンプ_アンナS</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Stamp_SaphirS</t>
+          <t>Stamp_AnnaS</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -17527,7 +17707,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>札菲亚</t>
+          <t>安娜</t>
         </is>
       </c>
     </row>
@@ -17535,12 +17715,12 @@
       <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ヴェイル</t>
+          <t>PCSID_スタンプ_ジャン</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Stamp_Veyre</t>
+          <t>Stamp_Jean</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -17551,7 +17731,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>贝珥</t>
+          <t>贾恩</t>
         </is>
       </c>
     </row>
@@ -17559,12 +17739,12 @@
       <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ヴェイルS</t>
+          <t>PCSID_スタンプ_ジャンS</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Stamp_VeyreS</t>
+          <t>Stamp_JeanS</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -17575,7 +17755,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>贝珥</t>
+          <t>贾恩</t>
         </is>
       </c>
     </row>
@@ -17583,12 +17763,12 @@
       <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_モーヴ</t>
+          <t>PCSID_スタンプ_ユナカ</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Stamp_Mauve</t>
+          <t>Stamp_Yunaka</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -17599,7 +17779,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>莫布</t>
+          <t>尤娜卡</t>
         </is>
       </c>
     </row>
@@ -17607,12 +17787,12 @@
       <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_モーヴS</t>
+          <t>PCSID_スタンプ_ユナカS</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Stamp_MauveS</t>
+          <t>Stamp_YunakaS</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -17623,7 +17803,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>莫布</t>
+          <t>尤娜卡</t>
         </is>
       </c>
     </row>
@@ -17631,23 +17811,23 @@
       <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ソラ</t>
+          <t>PCSID_スタンプ_セアダス</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Stamp_Sola</t>
+          <t>Stamp_Seadas</t>
         </is>
       </c>
       <c r="D302" t="n">
         <v>6</v>
       </c>
       <c r="E302" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>赛安达斯</t>
         </is>
       </c>
     </row>
@@ -17655,23 +17835,23 @@
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PCSID_スタンプ_ソラS</t>
+          <t>PCSID_スタンプ_セアダスS</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Stamp_SolaS</t>
+          <t>Stamp_SeadasS</t>
         </is>
       </c>
       <c r="D303" t="n">
         <v>6</v>
       </c>
       <c r="E303" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>赛安达斯</t>
         </is>
       </c>
     </row>
@@ -17679,23 +17859,23 @@
       <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_マルス</t>
+          <t>PCSID_スタンプ_リンデン</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Marth</t>
+          <t>Stamp_Linden</t>
         </is>
       </c>
       <c r="D304" t="n">
         <v>6</v>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>霖丹</t>
         </is>
       </c>
     </row>
@@ -17703,23 +17883,23 @@
       <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_セリカ</t>
+          <t>PCSID_スタンプ_リンデンS</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Celica</t>
+          <t>Stamp_LindenS</t>
         </is>
       </c>
       <c r="D305" t="n">
         <v>6</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>霖丹</t>
         </is>
       </c>
     </row>
@@ -17727,23 +17907,23 @@
       <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_シグルド</t>
+          <t>PCSID_スタンプ_ザフィーア</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Siglud</t>
+          <t>Stamp_Saphir</t>
         </is>
       </c>
       <c r="D306" t="n">
         <v>6</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>札菲亚</t>
         </is>
       </c>
     </row>
@@ -17751,23 +17931,23 @@
       <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_リーフ</t>
+          <t>PCSID_スタンプ_ザフィーアS</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Leaf</t>
+          <t>Stamp_SaphirS</t>
         </is>
       </c>
       <c r="D307" t="n">
         <v>6</v>
       </c>
       <c r="E307" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>札菲亚</t>
         </is>
       </c>
     </row>
@@ -17775,23 +17955,23 @@
       <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_ロイ</t>
+          <t>PCSID_スタンプ_ヴェイル</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Roy</t>
+          <t>Stamp_Veyre</t>
         </is>
       </c>
       <c r="D308" t="n">
         <v>6</v>
       </c>
       <c r="E308" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>贝珥</t>
         </is>
       </c>
     </row>
@@ -17799,23 +17979,23 @@
       <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_リン</t>
+          <t>PCSID_スタンプ_ヴェイルS</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Lin</t>
+          <t>Stamp_VeyreS</t>
         </is>
       </c>
       <c r="D309" t="n">
         <v>6</v>
       </c>
       <c r="E309" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>贝珥</t>
         </is>
       </c>
     </row>
@@ -17823,23 +18003,23 @@
       <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_エイリーク</t>
+          <t>PCSID_スタンプ_モーヴ</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Eirik</t>
+          <t>Stamp_Mauve</t>
         </is>
       </c>
       <c r="D310" t="n">
         <v>6</v>
       </c>
       <c r="E310" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>莫布</t>
         </is>
       </c>
     </row>
@@ -17847,23 +18027,23 @@
       <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_アイク</t>
+          <t>PCSID_スタンプ_モーヴS</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Ike</t>
+          <t>Stamp_MauveS</t>
         </is>
       </c>
       <c r="D311" t="n">
         <v>6</v>
       </c>
       <c r="E311" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>莫布</t>
         </is>
       </c>
     </row>
@@ -17871,19 +18051,19 @@
       <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_ミカヤ</t>
+          <t>PCSID_スタンプ_ソラ</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Micaiah</t>
+          <t>Stamp_Sola</t>
         </is>
       </c>
       <c r="D312" t="n">
         <v>6</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -17895,23 +18075,23 @@
       <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_ルキナ</t>
+          <t>PCSID_スタンプ_ソラS</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Lucina</t>
+          <t>Stamp_SolaS</t>
         </is>
       </c>
       <c r="D313" t="n">
         <v>6</v>
       </c>
       <c r="E313" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17919,23 +18099,23 @@
       <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_カムイ</t>
+          <t>PCSID_システム_指輪_マルス</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Kamui</t>
+          <t>SystemIcon_Ring_Marth</t>
         </is>
       </c>
       <c r="D314" t="n">
         <v>6</v>
       </c>
       <c r="E314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17943,23 +18123,23 @@
       <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_ベレト</t>
+          <t>PCSID_システム_指輪_セリカ</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Byleth</t>
+          <t>SystemIcon_Ring_Celica</t>
         </is>
       </c>
       <c r="D315" t="n">
         <v>6</v>
       </c>
       <c r="E315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17967,23 +18147,311 @@
       <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PCSID_システム_指輪_リュール</t>
+          <t>PCSID_システム_指輪_シグルド</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>SystemIcon_Ring_Lueur</t>
+          <t>SystemIcon_Ring_Siglud</t>
         </is>
       </c>
       <c r="D316" t="n">
         <v>6</v>
       </c>
       <c r="E316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>MCID_*</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr"/>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_リーフ</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Leaf</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>6</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr"/>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_ロイ</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Roy</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>6</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr"/>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_リン</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Lin</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>6</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr"/>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_エイリーク</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Eirik</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>6</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr"/>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_アイク</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Ike</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>6</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr"/>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_ミカヤ</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Micaiah</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>6</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_ルキナ</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Lucina</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>6</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr"/>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_カムイ</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Kamui</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>6</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr"/>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_ベレト</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Byleth</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>6</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr"/>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_リュール</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Lueur</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>6</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr"/>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_チキ</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Tiki</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>6</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>PCSID_システム_指輪_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>SystemIcon_Ring_Edelgard</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>6</v>
+      </c>
+      <c r="E328" t="n">
+        <v>4</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -17998,7 +18466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -19516,20 +19984,20 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PCTID_全ユニットと支援会話Cが発生</t>
+          <t>PCTID_紋章士チキ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>支援C</t>
+          <t>PCTMID_Tiki</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>GID_チキ</t>
         </is>
       </c>
     </row>
@@ -19537,20 +20005,20 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PCTID_全ユニットと支援会話Bが発生</t>
+          <t>PCTID_紋章士エーデルガルト</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>支援B</t>
+          <t>PCTMID_Edelgard</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>观看了{[0100]}名伙伴等级B的支援对话。</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -19558,20 +20026,20 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PCTID_全ユニットと支援会話Aが発生</t>
+          <t>PCTID_紋章士ディミトリ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>支援A</t>
+          <t>PCTMID_Dimitri</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>观看了{[0100]}名伙伴等级A的支援对话。</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -19579,20 +20047,20 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PCTID_支援会話Ringが発生</t>
+          <t>PCTID_紋章士クロード</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>支援Ring</t>
+          <t>PCTMID_Claude</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>观看了支援对话{[0802|1800520065006c00690061006e0063006500520069006e006700]}。</t>
+          <t>GID_エーデルガルト</t>
         </is>
       </c>
     </row>
@@ -19600,16 +20068,16 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PCTID_全ユニットそれぞれと共に5回進軍</t>
+          <t>PCTID_全ユニットと支援会話Cが発生</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>全员出击</t>
+          <t>支援C</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -19621,12 +20089,12 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PCTID_遭遇戦45回クリア</t>
+          <t>PCTID_全ユニットと支援会話Bが発生</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>清扫大师</t>
+          <t>支援B</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -19634,7 +20102,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>进行了{[0100]}次遭遇战。</t>
+          <t>观看了{[0100]}名伙伴等级B的支援对话。</t>
         </is>
       </c>
     </row>
@@ -19642,12 +20110,12 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PCTID_戦闘回数5000回</t>
+          <t>PCTID_全ユニットと支援会話Aが発生</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>战斗狂</t>
+          <t>支援A</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -19655,7 +20123,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>进行了{[0100]}次战斗。</t>
+          <t>观看了{[0100]}名伙伴等级A的支援对话。</t>
         </is>
       </c>
     </row>
@@ -19663,12 +20131,12 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PCTID_一般兵500体撃破</t>
+          <t>PCTID_支援会話Ringが発生</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>一般士兵</t>
+          <t>支援Ring</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -19676,7 +20144,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>击败了{[0100]}名一般士兵。</t>
+          <t>观看了支援对话{[0802|1800520065006c00690061006e0063006500520069006e006700]}。</t>
         </is>
       </c>
     </row>
@@ -19684,20 +20152,20 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PCTID_異形兵500体撃破</t>
+          <t>PCTID_全ユニットそれぞれと共に5回進軍</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>异形兵</t>
+          <t>全员出击</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>击败了{[0100]}个异形兵。</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -19705,12 +20173,12 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PCTID_蛮族500体撃破</t>
+          <t>PCTID_遭遇戦45回クリア</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蛮族</t>
+          <t>清扫大师</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -19718,7 +20186,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>击败了{[0100]}名蛮族。</t>
+          <t>进行了{[0100]}次遭遇战。</t>
         </is>
       </c>
     </row>
@@ -19726,12 +20194,12 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PCTID_杖500回使用</t>
+          <t>PCTID_戦闘回数5000回</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>操杖士</t>
+          <t>战斗狂</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -19739,7 +20207,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>使用了{[0100]}次杖。</t>
+          <t>进行了{[0100]}次战斗。</t>
         </is>
       </c>
     </row>
@@ -19747,12 +20215,12 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PCTID_必殺技300回発動</t>
+          <t>PCTID_一般兵500体撃破</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>专家</t>
+          <t>一般士兵</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -19760,7 +20228,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>发动了{[0100]}次必杀攻击。</t>
+          <t>击败了{[0100]}名一般士兵。</t>
         </is>
       </c>
     </row>
@@ -19768,12 +20236,12 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PCTID_エンゲージ300回</t>
+          <t>PCTID_異形兵500体撃破</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>结合！</t>
+          <t>异形兵</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -19781,7 +20249,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>进行了{[0100]}次结合。</t>
+          <t>击败了{[0100]}个异形兵。</t>
         </is>
       </c>
     </row>
@@ -19789,12 +20257,12 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PCTID_エンゲージ技300回発動</t>
+          <t>PCTID_蛮族500体撃破</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>结合攻击！</t>
+          <t>蛮族</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -19802,7 +20270,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>发动了{[0100]}次结合技。</t>
+          <t>击败了{[0100]}名蛮族。</t>
         </is>
       </c>
     </row>
@@ -19810,12 +20278,12 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PCTID_攻撃回避500回発生</t>
+          <t>PCTID_杖500回使用</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>躲开！</t>
+          <t>操杖士</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -19823,7 +20291,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>回避了{[0100]}次攻击。</t>
+          <t>使用了{[0100]}次杖。</t>
         </is>
       </c>
     </row>
@@ -19831,12 +20299,12 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PCTID_チェインガード300回発生</t>
+          <t>PCTID_必殺技300回発動</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>守护！</t>
+          <t>专家</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -19844,7 +20312,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>防御了{[0100]}次攻击。</t>
+          <t>发动了{[0100]}次必杀攻击。</t>
         </is>
       </c>
     </row>
@@ -19852,12 +20320,12 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PCTID_チェインアタック300回発生</t>
+          <t>PCTID_エンゲージ300回</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>我来帮忙！</t>
+          <t>结合！</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -19865,7 +20333,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>发动了{[0100]}次连锁攻击。</t>
+          <t>进行了{[0100]}次结合。</t>
         </is>
       </c>
     </row>
@@ -19873,12 +20341,12 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PCTID_10人チェイン発生</t>
+          <t>PCTID_エンゲージ技300回発動</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>同时攻击！</t>
+          <t>结合攻击！</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -19886,7 +20354,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>发动了{[0100]}人的连锁攻击。</t>
+          <t>发动了{[0100]}次结合技。</t>
         </is>
       </c>
     </row>
@@ -19894,12 +20362,12 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PCTID_ブレイク300回発生</t>
+          <t>PCTID_攻撃回避500回発生</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>打破！</t>
+          <t>躲开！</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -19907,7 +20375,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>发动了{[0100]}次打破。</t>
+          <t>回避了{[0100]}次攻击。</t>
         </is>
       </c>
     </row>
@@ -19915,12 +20383,12 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PCTID_スマッシュ50回発生</t>
+          <t>PCTID_チェインガード300回発生</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>猛击！</t>
+          <t>守护！</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -19928,7 +20396,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>发动了{[0100]}次猛击。</t>
+          <t>防御了{[0100]}次攻击。</t>
         </is>
       </c>
     </row>
@@ -19936,12 +20404,12 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PCTID_ミニゲーム100回プレイ</t>
+          <t>PCTID_チェインアタック300回発生</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>休息一下</t>
+          <t>我来帮忙！</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -19949,7 +20417,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>游玩了{[0100]}次活动。</t>
+          <t>发动了{[0100]}次连锁攻击。</t>
         </is>
       </c>
     </row>
@@ -19957,12 +20425,12 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PCTID_指輪5000個精製</t>
+          <t>PCTID_10人チェイン発生</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>戒指收藏家</t>
+          <t>同时攻击！</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -19970,7 +20438,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>精炼了{[0100]}次戒指。</t>
+          <t>发动了{[0100]}人的连锁攻击。</t>
         </is>
       </c>
     </row>
@@ -19978,12 +20446,12 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PCTID_指輪500個合成</t>
+          <t>PCTID_ブレイク300回発生</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>合成魔人</t>
+          <t>打破！</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -19991,7 +20459,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>合成了{[0100]}次戒指。</t>
+          <t>发动了{[0100]}次打破。</t>
         </is>
       </c>
     </row>
@@ -19999,12 +20467,12 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PCTID_Cランク指輪1000個獲得</t>
+          <t>PCTID_スマッシュ50回発生</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>阶级C</t>
+          <t>猛击！</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -20012,7 +20480,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>获得了{[0100]}枚阶级C的牵绊戒指。</t>
+          <t>发动了{[0100]}次猛击。</t>
         </is>
       </c>
     </row>
@@ -20020,12 +20488,12 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PCTID_Bランク指輪100個獲得</t>
+          <t>PCTID_ミニゲーム100回プレイ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>阶级B</t>
+          <t>休息一下</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -20033,7 +20501,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>获得了{[0100]}枚阶级B的牵绊戒指。</t>
+          <t>游玩了{[0100]}次活动。</t>
         </is>
       </c>
     </row>
@@ -20041,12 +20509,12 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PCTID_Aランク指輪50個獲得</t>
+          <t>PCTID_指輪5000個精製</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>阶级A</t>
+          <t>戒指收藏家</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -20054,7 +20522,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>获得了{[0100]}枚阶级A的牵绊戒指。</t>
+          <t>精炼了{[0100]}次戒指。</t>
         </is>
       </c>
     </row>
@@ -20062,12 +20530,12 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PCTID_Sランク指輪10個獲得</t>
+          <t>PCTID_指輪500個合成</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>阶级S</t>
+          <t>合成魔人</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -20075,7 +20543,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>获得了{[0100]}枚阶级S的牵绊戒指。</t>
+          <t>合成了{[0100]}次戒指。</t>
         </is>
       </c>
     </row>
@@ -20083,12 +20551,12 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PCTID_指輪磨き100回</t>
+          <t>PCTID_Cランク指輪1000個獲得</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>爱干净</t>
+          <t>阶级C</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -20096,7 +20564,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>研磨了{[0100]}次戒指{[0108]}。</t>
+          <t>获得了{[0100]}枚阶级C的牵绊戒指。</t>
         </is>
       </c>
     </row>
@@ -20104,12 +20572,12 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PCTID_フィレネの投資段階が５になった</t>
+          <t>PCTID_Bランク指輪100個獲得</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>费列聂亲善大使</t>
+          <t>阶级B</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -20117,7 +20585,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>费列聂的投资阶级升至{[0100]}。</t>
+          <t>获得了{[0100]}枚阶级B的牵绊戒指。</t>
         </is>
       </c>
     </row>
@@ -20125,12 +20593,12 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PCTID_ブロディアの投資段階が５になった</t>
+          <t>PCTID_Aランク指輪50個獲得</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>布罗帝亚亲善大使</t>
+          <t>阶级A</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -20138,7 +20606,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>布罗帝亚的投资阶级升至{[0100]}。</t>
+          <t>获得了{[0100]}枚阶级A的牵绊戒指。</t>
         </is>
       </c>
     </row>
@@ -20146,12 +20614,12 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PCTID_イルシオンの投資段階が５になった</t>
+          <t>PCTID_Sランク指輪10個獲得</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>伊尔席翁亲善大使</t>
+          <t>阶级S</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -20159,7 +20627,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>伊尔席翁的投资阶级升至{[0100]}。</t>
+          <t>获得了{[0100]}枚阶级S的牵绊戒指。</t>
         </is>
       </c>
     </row>
@@ -20167,12 +20635,12 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PCTID_ソルムの投資段階が５になった</t>
+          <t>PCTID_指輪磨き100回</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>索尔姆亲善大使</t>
+          <t>爱干净</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -20180,7 +20648,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>索尔姆的投资阶级升至{[0100]}。</t>
+          <t>研磨了{[0100]}次戒指{[0108]}。</t>
         </is>
       </c>
     </row>
@@ -20188,12 +20656,12 @@
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PCTID_全ての国の投資段階を最大にした</t>
+          <t>PCTID_フィレネの投資段階が５になった</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>艾雷欧斯亲善大使</t>
+          <t>费列聂亲善大使</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -20201,7 +20669,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>所有国家的投资阶级皆已达上限。</t>
+          <t>费列聂的投资阶级升至{[0100]}。</t>
         </is>
       </c>
     </row>
@@ -20209,12 +20677,12 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PCTID_投資額合計1000000</t>
+          <t>PCTID_ブロディアの投資段階が５になった</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>有钱人</t>
+          <t>布罗帝亚亲善大使</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -20222,7 +20690,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>投资金额总计为{[0100]}G。</t>
+          <t>布罗帝亚的投资阶级升至{[0100]}。</t>
         </is>
       </c>
     </row>
@@ -20230,12 +20698,12 @@
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PCTID_料理100回製作</t>
+          <t>PCTID_イルシオンの投資段階が５になった</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>厨师</t>
+          <t>伊尔席翁亲善大使</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -20243,7 +20711,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>制作了{[0100]}次料理。</t>
+          <t>伊尔席翁的投资阶级升至{[0100]}。</t>
         </is>
       </c>
     </row>
@@ -20251,12 +20719,12 @@
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PCTID_料理G5回</t>
+          <t>PCTID_ソルムの投資段階が５になった</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>失败的厨师</t>
+          <t>索尔姆亲善大使</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -20264,7 +20732,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>制作了{[0101]}次特性为{[0100]}的料理。</t>
+          <t>索尔姆的投资阶级升至{[0100]}。</t>
         </is>
       </c>
     </row>
@@ -20272,12 +20740,12 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PCTID_料理F5回</t>
+          <t>PCTID_全ての国の投資段階を最大にした</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>科学厨师</t>
+          <t>艾雷欧斯亲善大使</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -20285,7 +20753,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>制作了{[0101]}次特性为{[0100]}的料理。</t>
+          <t>所有国家的投资阶级皆已达上限。</t>
         </is>
       </c>
     </row>
@@ -20293,12 +20761,12 @@
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PCTID_料理E5回</t>
+          <t>PCTID_投資額合計1000000</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>奇珍异味厨师</t>
+          <t>有钱人</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -20306,7 +20774,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>制作了{[0101]}次特性为{[0100]}的料理。</t>
+          <t>投资金额总计为{[0100]}G。</t>
         </is>
       </c>
     </row>
@@ -20314,12 +20782,12 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PCTID_料理D5回</t>
+          <t>PCTID_料理100回製作</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>见习厨师</t>
+          <t>厨师</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -20327,7 +20795,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>制作了{[0101]}次特性为{[0100]}的料理。</t>
+          <t>制作了{[0100]}次料理。</t>
         </is>
       </c>
     </row>
@@ -20335,12 +20803,12 @@
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PCTID_料理C20回</t>
+          <t>PCTID_料理G5回</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>员工餐厨师</t>
+          <t>失败的厨师</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -20356,12 +20824,12 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PCTID_料理B20回</t>
+          <t>PCTID_料理F5回</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>平凡厨师</t>
+          <t>科学厨师</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -20377,12 +20845,12 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PCTID_料理A20回</t>
+          <t>PCTID_料理E5回</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>知名厨师</t>
+          <t>奇珍异味厨师</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -20398,12 +20866,12 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PCTID_料理S5回</t>
+          <t>PCTID_料理D5回</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>顶级厨师</t>
+          <t>见习厨师</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -20419,12 +20887,12 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PCTID_料理SS3回</t>
+          <t>PCTID_料理C20回</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>传说中的厨师</t>
+          <t>员工餐厨师</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -20440,12 +20908,12 @@
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PCTID_寝る100回</t>
+          <t>PCTID_料理B20回</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>最爱被窝</t>
+          <t>平凡厨师</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -20453,7 +20921,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>触发了{[0100]}次唤醒对话。</t>
+          <t>制作了{[0101]}次特性为{[0100]}的料理。</t>
         </is>
       </c>
     </row>
@@ -20461,12 +20929,12 @@
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PCTID_仲間３０人と起こしイベントCが発生</t>
+          <t>PCTID_料理A20回</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>赖床鬼</t>
+          <t>知名厨师</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -20474,7 +20942,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>触发了与{[0100]}名伙伴等级C的唤醒对话。</t>
+          <t>制作了{[0101]}次特性为{[0100]}的料理。</t>
         </is>
       </c>
     </row>
@@ -20482,12 +20950,12 @@
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PCTID_仲間３０人と起こしイベントBが発生</t>
+          <t>PCTID_料理S5回</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>待人唤醒</t>
+          <t>顶级厨师</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -20495,7 +20963,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>触发了与{[0100]}名伙伴等级B的唤醒对话。</t>
+          <t>制作了{[0101]}次特性为{[0100]}的料理。</t>
         </is>
       </c>
     </row>
@@ -20503,12 +20971,12 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PCTID_仲間３０人と起こしイベントAが発生</t>
+          <t>PCTID_料理SS3回</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>闹钟不离身</t>
+          <t>传说中的厨师</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -20516,7 +20984,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>触发了与{[0100]}名伙伴等级A的唤醒对话。</t>
+          <t>制作了{[0101]}次特性为{[0100]}的料理。</t>
         </is>
       </c>
     </row>
@@ -20524,12 +20992,12 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PCTID_起こしイベントSが発生</t>
+          <t>PCTID_寝る100回</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>美妙的苏醒瞬间</t>
+          <t>最爱被窝</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -20537,7 +21005,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>触发了与伙伴的唤醒对话{[0802|1800520065006c00690061006e0063006500520069006e006700]}。</t>
+          <t>触发了{[0100]}次唤醒对话。</t>
         </is>
       </c>
     </row>
@@ -20545,12 +21013,12 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PCTID_仲間とバトル100回</t>
+          <t>PCTID_仲間３０人と起こしイベントCが発生</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>热爱锻炼</t>
+          <t>赖床鬼</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -20558,7 +21026,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>在锻炼之间与伙伴战斗了{[0100]}次。</t>
+          <t>触发了与{[0100]}名伙伴等级C的唤醒对话。</t>
         </is>
       </c>
     </row>
@@ -20566,12 +21034,12 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PCTID_仲間とバトル100回勝利</t>
+          <t>PCTID_仲間３０人と起こしイベントBが発生</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>一决胜负</t>
+          <t>待人唤醒</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -20579,7 +21047,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>在锻炼之间战胜了伙伴{[0100]}次。</t>
+          <t>触发了与{[0100]}名伙伴等级B的唤醒对话。</t>
         </is>
       </c>
     </row>
@@ -20587,12 +21055,12 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PCTID_紋章士とバトル100回</t>
+          <t>PCTID_仲間３０人と起こしイベントAが発生</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>牵绊专家</t>
+          <t>闹钟不离身</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -20600,7 +21068,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>在锻炼之间与纹章士战斗了{[0100]}次。</t>
+          <t>触发了与{[0100]}名伙伴等级A的唤醒对话。</t>
         </is>
       </c>
     </row>
@@ -20608,12 +21076,12 @@
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PCTID_紋章士とバトル100回勝利</t>
+          <t>PCTID_起こしイベントSが発生</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>纹章士</t>
+          <t>美妙的苏醒瞬间</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -20621,7 +21089,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>在锻炼之间战胜了纹章士{[0100]}次。</t>
+          <t>触发了与伙伴的唤醒对话{[0802|1800520065006c00690061006e0063006500520069006e006700]}。</t>
         </is>
       </c>
     </row>
@@ -20629,12 +21097,12 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PCTID_武器100点購入</t>
+          <t>PCTID_仲間とバトル100回</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>准备万全</t>
+          <t>热爱锻炼</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -20642,7 +21110,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件武器。</t>
+          <t>在锻炼之间与伙伴战斗了{[0100]}次。</t>
         </is>
       </c>
     </row>
@@ -20650,12 +21118,12 @@
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PCTID_武器剣50点購入</t>
+          <t>PCTID_仲間とバトル100回勝利</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>用剑高手</t>
+          <t>一决胜负</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -20663,7 +21131,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件剑类武器。</t>
+          <t>在锻炼之间战胜了伙伴{[0100]}次。</t>
         </is>
       </c>
     </row>
@@ -20671,12 +21139,12 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PCTID_武器槍50点購入</t>
+          <t>PCTID_紋章士とバトル100回</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>用枪高手</t>
+          <t>牵绊专家</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -20684,7 +21152,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件枪类武器。</t>
+          <t>在锻炼之间与纹章士战斗了{[0100]}次。</t>
         </is>
       </c>
     </row>
@@ -20692,12 +21160,12 @@
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PCTID_武器斧50点購入</t>
+          <t>PCTID_紋章士とバトル100回勝利</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>用斧高手</t>
+          <t>纹章士</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -20705,7 +21173,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件斧类武器。</t>
+          <t>在锻炼之间战胜了纹章士{[0100]}次。</t>
         </is>
       </c>
     </row>
@@ -20713,12 +21181,12 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PCTID_武器弓50点購入</t>
+          <t>PCTID_武器100点購入</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>用弓高手</t>
+          <t>准备万全</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -20726,7 +21194,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件弓类武器。</t>
+          <t>购买了{[0100]}件武器。</t>
         </is>
       </c>
     </row>
@@ -20734,12 +21202,12 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PCTID_武器短剣50点購入</t>
+          <t>PCTID_武器剣50点購入</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>短剑高手</t>
+          <t>用剑高手</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -20747,7 +21215,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件短剑类武器。</t>
+          <t>购买了{[0100]}件剑类武器。</t>
         </is>
       </c>
     </row>
@@ -20755,12 +21223,12 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PCTID_武器魔法50点購入</t>
+          <t>PCTID_武器槍50点購入</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>魔法高手</t>
+          <t>用枪高手</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -20768,7 +21236,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件魔道书类武器。</t>
+          <t>购买了{[0100]}件枪类武器。</t>
         </is>
       </c>
     </row>
@@ -20776,12 +21244,12 @@
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PCTID_武器拳50点購入</t>
+          <t>PCTID_武器斧50点購入</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>体术高手</t>
+          <t>用斧高手</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -20789,7 +21257,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件体术类武器。</t>
+          <t>购买了{[0100]}件斧类武器。</t>
         </is>
       </c>
     </row>
@@ -20797,12 +21265,12 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PCTID_武器50点売却</t>
+          <t>PCTID_武器弓50点購入</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>购物专家</t>
+          <t>用弓高手</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -20810,7 +21278,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>出售了{[0100]}件武器。</t>
+          <t>购买了{[0100]}件弓类武器。</t>
         </is>
       </c>
     </row>
@@ -20818,12 +21286,12 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PCTID_道具500点購入</t>
+          <t>PCTID_武器短剣50点購入</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>爱操心</t>
+          <t>短剑高手</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -20831,7 +21299,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>购买了{[0100]}个道具。</t>
+          <t>购买了{[0100]}件短剑类武器。</t>
         </is>
       </c>
     </row>
@@ -20839,12 +21307,12 @@
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PCTID_道具50点売却</t>
+          <t>PCTID_武器魔法50点購入</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>商人</t>
+          <t>魔法高手</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -20852,7 +21320,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>出售了{[0100]}个道具。</t>
+          <t>购买了{[0100]}件魔道书类武器。</t>
         </is>
       </c>
     </row>
@@ -20860,12 +21328,12 @@
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PCTID_道具杖50点購入</t>
+          <t>PCTID_武器拳50点購入</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>用杖高手</t>
+          <t>体术高手</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -20873,7 +21341,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>购买了{[0100]}把杖。</t>
+          <t>购买了{[0100]}件体术类武器。</t>
         </is>
       </c>
     </row>
@@ -20881,12 +21349,12 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PCTID_アクセサリ25点購入</t>
+          <t>PCTID_武器50点売却</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>追求时髦</t>
+          <t>购物专家</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -20894,7 +21362,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>购买了{[0100]}件装饰品。</t>
+          <t>出售了{[0100]}件武器。</t>
         </is>
       </c>
     </row>
@@ -20902,12 +21370,12 @@
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PCTID_着せ替え100回</t>
+          <t>PCTID_道具500点購入</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>换装人偶</t>
+          <t>爱操心</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -20915,7 +21383,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>更换了{[0100]}次装饰品。</t>
+          <t>购买了{[0100]}个道具。</t>
         </is>
       </c>
     </row>
@@ -20923,12 +21391,12 @@
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PCTID_錬成100回</t>
+          <t>PCTID_道具50点売却</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>锻造师</t>
+          <t>商人</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -20936,7 +21404,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>锻造了{[0100]}次武器。</t>
+          <t>出售了{[0100]}个道具。</t>
         </is>
       </c>
     </row>
@@ -20944,12 +21412,12 @@
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PCTID_錬成剣50回</t>
+          <t>PCTID_道具杖50点購入</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>剑锻造师</t>
+          <t>用杖高手</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -20957,7 +21425,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>锻造了{[0100]}次剑类武器。</t>
+          <t>购买了{[0100]}把杖。</t>
         </is>
       </c>
     </row>
@@ -20965,12 +21433,12 @@
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PCTID_錬成槍50回</t>
+          <t>PCTID_アクセサリ25点購入</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>枪锻造师</t>
+          <t>追求时髦</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -20978,7 +21446,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>锻造了{[0100]}次枪类武器。</t>
+          <t>购买了{[0100]}件装饰品。</t>
         </is>
       </c>
     </row>
@@ -20986,12 +21454,12 @@
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PCTID_錬成斧50回</t>
+          <t>PCTID_着せ替え100回</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>斧锻造师</t>
+          <t>换装人偶</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -20999,7 +21467,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>锻造了{[0100]}次斧类武器。</t>
+          <t>更换了{[0100]}次装饰品。</t>
         </is>
       </c>
     </row>
@@ -21007,12 +21475,12 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PCTID_錬成弓50回</t>
+          <t>PCTID_錬成100回</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>弓锻造师</t>
+          <t>锻造师</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -21020,7 +21488,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>锻造了{[0100]}次弓类武器。</t>
+          <t>锻造了{[0100]}次武器。</t>
         </is>
       </c>
     </row>
@@ -21028,12 +21496,12 @@
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PCTID_錬成短剣50回</t>
+          <t>PCTID_錬成剣50回</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>短剑锻造师</t>
+          <t>剑锻造师</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -21041,7 +21509,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>锻造了{[0100]}次短剑类武器。</t>
+          <t>锻造了{[0100]}次剑类武器。</t>
         </is>
       </c>
     </row>
@@ -21049,12 +21517,12 @@
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PCTID_錬成魔法50回</t>
+          <t>PCTID_錬成槍50回</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>魔法锻造师</t>
+          <t>枪锻造师</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -21062,7 +21530,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>锻造了{[0100]}次魔道书类武器。</t>
+          <t>锻造了{[0100]}次枪类武器。</t>
         </is>
       </c>
     </row>
@@ -21070,12 +21538,12 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PCTID_錬成拳50回</t>
+          <t>PCTID_錬成斧50回</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>体术锻造师</t>
+          <t>斧锻造师</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -21083,7 +21551,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>锻造了{[0100]}次体术类武器。</t>
+          <t>锻造了{[0100]}次斧类武器。</t>
         </is>
       </c>
     </row>
@@ -21091,12 +21559,12 @@
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PCTID_紋章を刻む100回</t>
+          <t>PCTID_錬成弓50回</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>雕刻家</t>
+          <t>弓锻造师</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -21104,7 +21572,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>在武器上刻入纹章{[0100]}次。</t>
+          <t>锻造了{[0100]}次弓类武器。</t>
         </is>
       </c>
     </row>
@@ -21112,12 +21580,12 @@
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PCTID_プレイ時間240時間経過</t>
+          <t>PCTID_錬成短剣50回</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>FIRE EMBLEM ENGAGE</t>
+          <t>短剑锻造师</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -21125,7 +21593,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>游玩了{[0100]}小时。</t>
+          <t>锻造了{[0100]}次短剑类武器。</t>
         </is>
       </c>
     </row>
@@ -21133,12 +21601,12 @@
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PCTID_26章クリア</t>
+          <t>PCTID_錬成魔法50回</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>救世主</t>
+          <t>魔法锻造师</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -21146,7 +21614,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>已完成{[0100]}《{[0101]}》。</t>
+          <t>锻造了{[0100]}次魔道书类武器。</t>
         </is>
       </c>
     </row>
@@ -21154,12 +21622,12 @@
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PCTID_通信対戦数200回</t>
+          <t>PCTID_錬成拳50回</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>挑战者</t>
+          <t>体术锻造师</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -21167,7 +21635,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次异界的试炼。</t>
+          <t>锻造了{[0100]}次体术类武器。</t>
         </is>
       </c>
     </row>
@@ -21175,12 +21643,12 @@
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PCTID_通信対戦勝利数　100回</t>
+          <t>PCTID_紋章を刻む100回</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>冠军</t>
+          <t>雕刻家</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -21188,7 +21656,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>于异界的试炼中获胜了{[0100]}次。</t>
+          <t>在武器上刻入纹章{[0100]}次。</t>
         </is>
       </c>
     </row>
@@ -21196,12 +21664,12 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PCTID_リレーバトル数　200回</t>
+          <t>PCTID_プレイ時間240時間経過</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>队友</t>
+          <t>FIRE EMBLEM ENGAGE</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -21209,7 +21677,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>挑战了{[0100]}次续战的试炼。</t>
+          <t>游玩了{[0100]}小时。</t>
         </is>
       </c>
     </row>
@@ -21217,12 +21685,12 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PCTID_リレーバトル勝利数　100回</t>
+          <t>PCTID_26章クリア</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>队长</t>
+          <t>救世主</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -21230,7 +21698,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>于续战的试炼中获胜了{[0100]}次。</t>
+          <t>已完成{[0100]}《{[0101]}》。</t>
         </is>
       </c>
     </row>
@@ -21238,12 +21706,12 @@
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PCTID_連戦マップ１　ランク50</t>
+          <t>PCTID_通信対戦数200回</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>绿野专家</t>
+          <t>挑战者</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -21251,7 +21719,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>挑战了{[0100]}次异界的试炼。</t>
         </is>
       </c>
     </row>
@@ -21259,12 +21727,12 @@
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PCTID_連戦マップ２　ランク50</t>
+          <t>PCTID_通信対戦勝利数　100回</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>花田专家</t>
+          <t>冠军</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -21272,7 +21740,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于异界的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
     </row>
@@ -21280,12 +21748,12 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PCTID_連戦マップ３　ランク50</t>
+          <t>PCTID_リレーバトル数　200回</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>高原专家</t>
+          <t>队友</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -21293,7 +21761,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>挑战了{[0100]}次续战的试炼。</t>
         </is>
       </c>
     </row>
@@ -21301,12 +21769,12 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PCTID_連戦マップ４　ランク50</t>
+          <t>PCTID_リレーバトル勝利数　100回</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>雪森林专家</t>
+          <t>队长</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -21314,7 +21782,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
+          <t>于续战的试炼中获胜了{[0100]}次。</t>
         </is>
       </c>
     </row>
@@ -21322,12 +21790,12 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PCTID_連戦マップ５　ランク50</t>
+          <t>PCTID_連戦マップ１　ランク50</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>沙海专家</t>
+          <t>绿野专家</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -21343,12 +21811,12 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PCTID_連戦マップ６　ランク50</t>
+          <t>PCTID_連戦マップ２　ランク50</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>岩浆专家</t>
+          <t>花田专家</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -21364,20 +21832,20 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PCTID_E004勝利回数達成</t>
+          <t>PCTID_連戦マップ３　ランク50</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>双方皆有错</t>
+          <t>高原专家</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
     </row>
@@ -21385,12 +21853,12 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PCTID_スレイヤー</t>
+          <t>PCTID_連戦マップ４　ランク50</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>歼灭者</t>
+          <t>雪森林专家</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -21398,7 +21866,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>首次进行续战的试炼。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
     </row>
@@ -21406,12 +21874,12 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PCTID_サバイバー</t>
+          <t>PCTID_連戦マップ５　ランク50</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>求生专家</t>
+          <t>沙海专家</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -21419,7 +21887,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>首次进行续战的试炼。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
     </row>
@@ -21427,12 +21895,12 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PCTID_ヒールマスター</t>
+          <t>PCTID_連戦マップ６　ランク50</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>治愈大师</t>
+          <t>岩浆专家</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -21440,7 +21908,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>首次进行续战的试炼。</t>
+          <t>于连战的试炼“{[0100]}”难度{[0101]}中大获全胜。</t>
         </is>
       </c>
     </row>
@@ -21448,20 +21916,20 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PCTID_ブレイクマスター</t>
+          <t>PCTID_E004勝利回数達成</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>打破大师</t>
+          <t>双方皆有错</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>首次进行续战的试炼。</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21469,12 +21937,12 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PCTID_エンゲージマスター</t>
+          <t>PCTID_スレイヤー</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>结合大师</t>
+          <t>歼灭者</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -21490,12 +21958,12 @@
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PCTID_アイテムマスター</t>
+          <t>PCTID_サバイバー</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>道具大师</t>
+          <t>求生专家</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -21511,12 +21979,12 @@
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PCTID_ポイズンマスター</t>
+          <t>PCTID_ヒールマスター</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>毒药大师</t>
+          <t>治愈大师</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -21532,12 +22000,12 @@
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PCTID_ランナー</t>
+          <t>PCTID_ブレイクマスター</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>长跑冠军</t>
+          <t>打破大师</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -21553,12 +22021,12 @@
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PCTID_スキルマスター</t>
+          <t>PCTID_エンゲージマスター</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>特技大师</t>
+          <t>结合大师</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -21574,12 +22042,12 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PCTID_インビジブル</t>
+          <t>PCTID_アイテムマスター</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>毫发无损</t>
+          <t>道具大师</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -21595,12 +22063,12 @@
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PCTID_クリティカルマスター</t>
+          <t>PCTID_ポイズンマスター</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>必杀大师</t>
+          <t>毒药大师</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -21616,12 +22084,12 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PCTID_ウィークハンター</t>
+          <t>PCTID_ランナー</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>弱点猎人</t>
+          <t>长跑冠军</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -21637,12 +22105,12 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PCTID_ワンハート</t>
+          <t>PCTID_スキルマスター</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>一心同体</t>
+          <t>特技大师</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -21658,12 +22126,12 @@
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PCTID_ガーディアン</t>
+          <t>PCTID_インビジブル</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>保卫者</t>
+          <t>毫发无损</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -21679,12 +22147,12 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PCTID_スマッシャー</t>
+          <t>PCTID_クリティカルマスター</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>猛击者</t>
+          <t>必杀大师</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -21700,12 +22168,12 @@
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PCTID_アグレッシブ</t>
+          <t>PCTID_ウィークハンター</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>积极参战</t>
+          <t>弱点猎人</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -21721,12 +22189,12 @@
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PCTID_エレガント</t>
+          <t>PCTID_ワンハート</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>优雅助战</t>
+          <t>一心同体</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -21742,12 +22210,12 @@
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PCTID_アシストマスター</t>
+          <t>PCTID_ガーディアン</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>支援大师</t>
+          <t>保卫者</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -21763,12 +22231,12 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PCTID_チェインアタッカー</t>
+          <t>PCTID_スマッシャー</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>连锁攻击能手</t>
+          <t>猛击者</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -21784,12 +22252,12 @@
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PCTID_ゴースト</t>
+          <t>PCTID_アグレッシブ</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>游刃有余</t>
+          <t>积极参战</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -21805,12 +22273,12 @@
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PCTID_マイペース</t>
+          <t>PCTID_エレガント</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>我行我素</t>
+          <t>优雅助战</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -21826,12 +22294,12 @@
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PCTID_ストライキ</t>
+          <t>PCTID_アシストマスター</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>爱好和平</t>
+          <t>支援大师</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -21847,12 +22315,12 @@
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PCTID_ワンダラー</t>
+          <t>PCTID_チェインアタッカー</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>无业游民</t>
+          <t>连锁攻击能手</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -21868,12 +22336,12 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PCTID_トラブルメイカー</t>
+          <t>PCTID_ゴースト</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>备受关照</t>
+          <t>游刃有余</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -21889,18 +22357,102 @@
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PCTID_アンラッキー</t>
+          <t>PCTID_マイペース</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>厄运缠身</t>
+          <t>我行我素</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>5</v>
       </c>
       <c r="E185" t="inlineStr">
+        <is>
+          <t>首次进行续战的试炼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>PCTID_ストライキ</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>爱好和平</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>5</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>首次进行续战的试炼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>PCTID_ワンダラー</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>无业游民</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>5</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>首次进行续战的试炼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>PCTID_トラブルメイカー</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>备受关照</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>5</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>首次进行续战的试炼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>PCTID_アンラッキー</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>厄运缠身</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>5</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>首次进行续战的试炼。</t>
         </is>
@@ -21917,7 +22469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -23326,6 +23878,90 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PCFPID_チキ</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MPID_Tiki</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PCFPID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MPID_Edelgard</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PCFPID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MPID_Dimitri</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PCFPID_クロード</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MPID_Claude</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23337,7 +23973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -24410,6 +25046,27 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PCFCID_G001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
